--- a/BackTest/2019-10-27 BackTest PPT.xlsx
+++ b/BackTest/2019-10-27 BackTest PPT.xlsx
@@ -5666,13 +5666,17 @@
         <v>632</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="inlineStr"/>
-      <c r="K151" t="inlineStr"/>
+      <c r="J151" t="n">
+        <v>631</v>
+      </c>
+      <c r="K151" t="n">
+        <v>631</v>
+      </c>
       <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
@@ -5701,14 +5705,22 @@
         <v>633.3333333333334</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="inlineStr"/>
-      <c r="K152" t="inlineStr"/>
-      <c r="L152" t="inlineStr"/>
+      <c r="J152" t="n">
+        <v>637</v>
+      </c>
+      <c r="K152" t="n">
+        <v>631</v>
+      </c>
+      <c r="L152" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -5736,14 +5748,22 @@
         <v>639.3333333333334</v>
       </c>
       <c r="H153" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="inlineStr"/>
-      <c r="K153" t="inlineStr"/>
-      <c r="L153" t="inlineStr"/>
+      <c r="J153" t="n">
+        <v>632</v>
+      </c>
+      <c r="K153" t="n">
+        <v>631</v>
+      </c>
+      <c r="L153" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -5771,14 +5791,22 @@
         <v>637</v>
       </c>
       <c r="H154" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="inlineStr"/>
-      <c r="K154" t="inlineStr"/>
-      <c r="L154" t="inlineStr"/>
+      <c r="J154" t="n">
+        <v>649</v>
+      </c>
+      <c r="K154" t="n">
+        <v>631</v>
+      </c>
+      <c r="L154" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -5806,14 +5834,22 @@
         <v>638</v>
       </c>
       <c r="H155" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="inlineStr"/>
-      <c r="K155" t="inlineStr"/>
-      <c r="L155" t="inlineStr"/>
+      <c r="J155" t="n">
+        <v>630</v>
+      </c>
+      <c r="K155" t="n">
+        <v>631</v>
+      </c>
+      <c r="L155" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -5847,8 +5883,14 @@
         <v>0</v>
       </c>
       <c r="J156" t="inlineStr"/>
-      <c r="K156" t="inlineStr"/>
-      <c r="L156" t="inlineStr"/>
+      <c r="K156" t="n">
+        <v>631</v>
+      </c>
+      <c r="L156" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -5882,8 +5924,14 @@
         <v>0</v>
       </c>
       <c r="J157" t="inlineStr"/>
-      <c r="K157" t="inlineStr"/>
-      <c r="L157" t="inlineStr"/>
+      <c r="K157" t="n">
+        <v>631</v>
+      </c>
+      <c r="L157" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -5917,8 +5965,14 @@
         <v>0</v>
       </c>
       <c r="J158" t="inlineStr"/>
-      <c r="K158" t="inlineStr"/>
-      <c r="L158" t="inlineStr"/>
+      <c r="K158" t="n">
+        <v>631</v>
+      </c>
+      <c r="L158" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -5952,8 +6006,14 @@
         <v>0</v>
       </c>
       <c r="J159" t="inlineStr"/>
-      <c r="K159" t="inlineStr"/>
-      <c r="L159" t="inlineStr"/>
+      <c r="K159" t="n">
+        <v>631</v>
+      </c>
+      <c r="L159" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -5987,8 +6047,14 @@
         <v>0</v>
       </c>
       <c r="J160" t="inlineStr"/>
-      <c r="K160" t="inlineStr"/>
-      <c r="L160" t="inlineStr"/>
+      <c r="K160" t="n">
+        <v>631</v>
+      </c>
+      <c r="L160" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -6022,8 +6088,14 @@
         <v>0</v>
       </c>
       <c r="J161" t="inlineStr"/>
-      <c r="K161" t="inlineStr"/>
-      <c r="L161" t="inlineStr"/>
+      <c r="K161" t="n">
+        <v>631</v>
+      </c>
+      <c r="L161" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -6057,8 +6129,14 @@
         <v>0</v>
       </c>
       <c r="J162" t="inlineStr"/>
-      <c r="K162" t="inlineStr"/>
-      <c r="L162" t="inlineStr"/>
+      <c r="K162" t="n">
+        <v>631</v>
+      </c>
+      <c r="L162" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -6092,8 +6170,14 @@
         <v>0</v>
       </c>
       <c r="J163" t="inlineStr"/>
-      <c r="K163" t="inlineStr"/>
-      <c r="L163" t="inlineStr"/>
+      <c r="K163" t="n">
+        <v>631</v>
+      </c>
+      <c r="L163" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -6127,8 +6211,14 @@
         <v>0</v>
       </c>
       <c r="J164" t="inlineStr"/>
-      <c r="K164" t="inlineStr"/>
-      <c r="L164" t="inlineStr"/>
+      <c r="K164" t="n">
+        <v>631</v>
+      </c>
+      <c r="L164" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -6156,18 +6246,18 @@
         <v>620.3333333333334</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>612</v>
-      </c>
-      <c r="K165" t="inlineStr"/>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="n">
+        <v>631</v>
+      </c>
       <c r="L165" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="M165" t="n">
@@ -6197,15 +6287,15 @@
         <v>624.3333333333334</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>628</v>
-      </c>
-      <c r="K166" t="inlineStr"/>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="n">
+        <v>631</v>
+      </c>
       <c r="L166" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6238,15 +6328,15 @@
         <v>629</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>630</v>
-      </c>
-      <c r="K167" t="inlineStr"/>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="n">
+        <v>631</v>
+      </c>
       <c r="L167" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6279,15 +6369,15 @@
         <v>629.6666666666666</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>630</v>
-      </c>
-      <c r="K168" t="inlineStr"/>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="n">
+        <v>631</v>
+      </c>
       <c r="L168" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6320,15 +6410,15 @@
         <v>626</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>618</v>
-      </c>
-      <c r="K169" t="inlineStr"/>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="n">
+        <v>631</v>
+      </c>
       <c r="L169" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6361,15 +6451,15 @@
         <v>624</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>618</v>
-      </c>
-      <c r="K170" t="inlineStr"/>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="n">
+        <v>631</v>
+      </c>
       <c r="L170" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6402,15 +6492,15 @@
         <v>623.3333333333334</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>628</v>
-      </c>
-      <c r="K171" t="inlineStr"/>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="n">
+        <v>631</v>
+      </c>
       <c r="L171" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6443,15 +6533,15 @@
         <v>626.3333333333334</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>627</v>
-      </c>
-      <c r="K172" t="inlineStr"/>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="n">
+        <v>631</v>
+      </c>
       <c r="L172" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6484,15 +6574,15 @@
         <v>626.3333333333334</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>624</v>
-      </c>
-      <c r="K173" t="inlineStr"/>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="n">
+        <v>631</v>
+      </c>
       <c r="L173" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6525,15 +6615,15 @@
         <v>625.3333333333334</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>624</v>
-      </c>
-      <c r="K174" t="inlineStr"/>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="n">
+        <v>631</v>
+      </c>
       <c r="L174" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6566,15 +6656,15 @@
         <v>625.3333333333334</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>625</v>
-      </c>
-      <c r="K175" t="inlineStr"/>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="n">
+        <v>631</v>
+      </c>
       <c r="L175" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6607,15 +6697,15 @@
         <v>624.3333333333334</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>621</v>
-      </c>
-      <c r="K176" t="inlineStr"/>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="n">
+        <v>631</v>
+      </c>
       <c r="L176" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6648,15 +6738,15 @@
         <v>625</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>627</v>
-      </c>
-      <c r="K177" t="inlineStr"/>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="n">
+        <v>631</v>
+      </c>
       <c r="L177" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6689,15 +6779,15 @@
         <v>624.3333333333334</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>625</v>
-      </c>
-      <c r="K178" t="inlineStr"/>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="n">
+        <v>631</v>
+      </c>
       <c r="L178" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6730,15 +6820,15 @@
         <v>625.6666666666666</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>625</v>
-      </c>
-      <c r="K179" t="inlineStr"/>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="n">
+        <v>631</v>
+      </c>
       <c r="L179" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6771,15 +6861,15 @@
         <v>624.6666666666666</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>624</v>
-      </c>
-      <c r="K180" t="inlineStr"/>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="n">
+        <v>631</v>
+      </c>
       <c r="L180" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6812,15 +6902,15 @@
         <v>623.6666666666666</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>622</v>
-      </c>
-      <c r="K181" t="inlineStr"/>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="n">
+        <v>631</v>
+      </c>
       <c r="L181" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6853,15 +6943,15 @@
         <v>622.6666666666666</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>621</v>
-      </c>
-      <c r="K182" t="inlineStr"/>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="n">
+        <v>631</v>
+      </c>
       <c r="L182" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6894,15 +6984,15 @@
         <v>622</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>622</v>
-      </c>
-      <c r="K183" t="inlineStr"/>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="n">
+        <v>631</v>
+      </c>
       <c r="L183" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6935,15 +7025,15 @@
         <v>621.3333333333334</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>621</v>
-      </c>
-      <c r="K184" t="inlineStr"/>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="n">
+        <v>631</v>
+      </c>
       <c r="L184" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -6976,15 +7066,15 @@
         <v>623.3333333333334</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="n">
         <v>631</v>
       </c>
-      <c r="K185" t="inlineStr"/>
       <c r="L185" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7017,15 +7107,15 @@
         <v>623.3333333333334</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>622</v>
-      </c>
-      <c r="K186" t="inlineStr"/>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="n">
+        <v>631</v>
+      </c>
       <c r="L186" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7058,15 +7148,15 @@
         <v>626.6666666666666</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>630</v>
-      </c>
-      <c r="K187" t="inlineStr"/>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="n">
+        <v>631</v>
+      </c>
       <c r="L187" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7099,15 +7189,15 @@
         <v>625</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>622</v>
-      </c>
-      <c r="K188" t="inlineStr"/>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="n">
+        <v>631</v>
+      </c>
       <c r="L188" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7140,15 +7230,15 @@
         <v>625.6666666666666</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>624</v>
-      </c>
-      <c r="K189" t="inlineStr"/>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="n">
+        <v>631</v>
+      </c>
       <c r="L189" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7181,15 +7271,15 @@
         <v>623</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>622</v>
-      </c>
-      <c r="K190" t="inlineStr"/>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="n">
+        <v>631</v>
+      </c>
       <c r="L190" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7222,15 +7312,15 @@
         <v>622.3333333333334</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>621</v>
-      </c>
-      <c r="K191" t="inlineStr"/>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="n">
+        <v>631</v>
+      </c>
       <c r="L191" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7263,15 +7353,15 @@
         <v>621</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>620</v>
-      </c>
-      <c r="K192" t="inlineStr"/>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="n">
+        <v>631</v>
+      </c>
       <c r="L192" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7304,15 +7394,15 @@
         <v>621</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>622</v>
-      </c>
-      <c r="K193" t="inlineStr"/>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="n">
+        <v>631</v>
+      </c>
       <c r="L193" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7345,15 +7435,15 @@
         <v>622.3333333333334</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>623</v>
-      </c>
-      <c r="K194" t="inlineStr"/>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="n">
+        <v>631</v>
+      </c>
       <c r="L194" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7386,15 +7476,15 @@
         <v>624.6666666666666</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>627</v>
-      </c>
-      <c r="K195" t="inlineStr"/>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="n">
+        <v>631</v>
+      </c>
       <c r="L195" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7427,15 +7517,15 @@
         <v>626.3333333333334</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>627</v>
-      </c>
-      <c r="K196" t="inlineStr"/>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="n">
+        <v>631</v>
+      </c>
       <c r="L196" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7468,15 +7558,15 @@
         <v>627.3333333333334</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>628</v>
-      </c>
-      <c r="K197" t="inlineStr"/>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="n">
+        <v>631</v>
+      </c>
       <c r="L197" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7509,15 +7599,15 @@
         <v>628</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>628</v>
-      </c>
-      <c r="K198" t="inlineStr"/>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="n">
+        <v>631</v>
+      </c>
       <c r="L198" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7550,15 +7640,15 @@
         <v>629.6666666666666</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>632</v>
-      </c>
-      <c r="K199" t="inlineStr"/>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="n">
+        <v>631</v>
+      </c>
       <c r="L199" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7591,15 +7681,15 @@
         <v>631.3333333333334</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>633</v>
-      </c>
-      <c r="K200" t="inlineStr"/>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="n">
+        <v>631</v>
+      </c>
       <c r="L200" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7632,15 +7722,15 @@
         <v>632.6666666666666</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>632</v>
-      </c>
-      <c r="K201" t="inlineStr"/>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="n">
+        <v>631</v>
+      </c>
       <c r="L201" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7673,15 +7763,15 @@
         <v>634</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>635</v>
-      </c>
-      <c r="K202" t="inlineStr"/>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="n">
+        <v>631</v>
+      </c>
       <c r="L202" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7714,15 +7804,15 @@
         <v>635.3333333333334</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>637</v>
-      </c>
-      <c r="K203" t="inlineStr"/>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="n">
+        <v>631</v>
+      </c>
       <c r="L203" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7755,15 +7845,15 @@
         <v>636.6666666666666</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>628</v>
-      </c>
-      <c r="K204" t="inlineStr"/>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="n">
+        <v>631</v>
+      </c>
       <c r="L204" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7796,15 +7886,15 @@
         <v>636.6666666666666</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>636</v>
-      </c>
-      <c r="K205" t="inlineStr"/>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="n">
+        <v>631</v>
+      </c>
       <c r="L205" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7837,15 +7927,15 @@
         <v>637</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>628</v>
-      </c>
-      <c r="K206" t="inlineStr"/>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="n">
+        <v>631</v>
+      </c>
       <c r="L206" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7878,15 +7968,15 @@
         <v>637</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>637</v>
-      </c>
-      <c r="K207" t="inlineStr"/>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="n">
+        <v>631</v>
+      </c>
       <c r="L207" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7919,15 +8009,15 @@
         <v>637.3333333333334</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>637</v>
-      </c>
-      <c r="K208" t="inlineStr"/>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="n">
+        <v>631</v>
+      </c>
       <c r="L208" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -7960,15 +8050,15 @@
         <v>636.6666666666666</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>634</v>
-      </c>
-      <c r="K209" t="inlineStr"/>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="n">
+        <v>631</v>
+      </c>
       <c r="L209" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8001,15 +8091,15 @@
         <v>636.6666666666666</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>637</v>
-      </c>
-      <c r="K210" t="inlineStr"/>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="n">
+        <v>631</v>
+      </c>
       <c r="L210" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8042,15 +8132,15 @@
         <v>636.6666666666666</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>637</v>
-      </c>
-      <c r="K211" t="inlineStr"/>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="n">
+        <v>631</v>
+      </c>
       <c r="L211" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8083,15 +8173,15 @@
         <v>637</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>637</v>
-      </c>
-      <c r="K212" t="inlineStr"/>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="n">
+        <v>631</v>
+      </c>
       <c r="L212" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8130,7 +8220,9 @@
         <v>0</v>
       </c>
       <c r="J213" t="inlineStr"/>
-      <c r="K213" t="inlineStr"/>
+      <c r="K213" t="n">
+        <v>631</v>
+      </c>
       <c r="L213" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8169,7 +8261,9 @@
         <v>0</v>
       </c>
       <c r="J214" t="inlineStr"/>
-      <c r="K214" t="inlineStr"/>
+      <c r="K214" t="n">
+        <v>631</v>
+      </c>
       <c r="L214" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8208,7 +8302,9 @@
         <v>0</v>
       </c>
       <c r="J215" t="inlineStr"/>
-      <c r="K215" t="inlineStr"/>
+      <c r="K215" t="n">
+        <v>631</v>
+      </c>
       <c r="L215" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8247,7 +8343,9 @@
         <v>0</v>
       </c>
       <c r="J216" t="inlineStr"/>
-      <c r="K216" t="inlineStr"/>
+      <c r="K216" t="n">
+        <v>631</v>
+      </c>
       <c r="L216" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8286,7 +8384,9 @@
         <v>0</v>
       </c>
       <c r="J217" t="inlineStr"/>
-      <c r="K217" t="inlineStr"/>
+      <c r="K217" t="n">
+        <v>631</v>
+      </c>
       <c r="L217" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8325,7 +8425,9 @@
         <v>0</v>
       </c>
       <c r="J218" t="inlineStr"/>
-      <c r="K218" t="inlineStr"/>
+      <c r="K218" t="n">
+        <v>631</v>
+      </c>
       <c r="L218" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8364,7 +8466,9 @@
         <v>0</v>
       </c>
       <c r="J219" t="inlineStr"/>
-      <c r="K219" t="inlineStr"/>
+      <c r="K219" t="n">
+        <v>631</v>
+      </c>
       <c r="L219" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8403,7 +8507,9 @@
         <v>0</v>
       </c>
       <c r="J220" t="inlineStr"/>
-      <c r="K220" t="inlineStr"/>
+      <c r="K220" t="n">
+        <v>631</v>
+      </c>
       <c r="L220" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8442,7 +8548,9 @@
         <v>0</v>
       </c>
       <c r="J221" t="inlineStr"/>
-      <c r="K221" t="inlineStr"/>
+      <c r="K221" t="n">
+        <v>631</v>
+      </c>
       <c r="L221" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8481,7 +8589,9 @@
         <v>0</v>
       </c>
       <c r="J222" t="inlineStr"/>
-      <c r="K222" t="inlineStr"/>
+      <c r="K222" t="n">
+        <v>631</v>
+      </c>
       <c r="L222" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8520,7 +8630,9 @@
         <v>0</v>
       </c>
       <c r="J223" t="inlineStr"/>
-      <c r="K223" t="inlineStr"/>
+      <c r="K223" t="n">
+        <v>631</v>
+      </c>
       <c r="L223" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8559,7 +8671,9 @@
         <v>0</v>
       </c>
       <c r="J224" t="inlineStr"/>
-      <c r="K224" t="inlineStr"/>
+      <c r="K224" t="n">
+        <v>631</v>
+      </c>
       <c r="L224" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8598,7 +8712,9 @@
         <v>0</v>
       </c>
       <c r="J225" t="inlineStr"/>
-      <c r="K225" t="inlineStr"/>
+      <c r="K225" t="n">
+        <v>631</v>
+      </c>
       <c r="L225" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8637,7 +8753,9 @@
         <v>0</v>
       </c>
       <c r="J226" t="inlineStr"/>
-      <c r="K226" t="inlineStr"/>
+      <c r="K226" t="n">
+        <v>631</v>
+      </c>
       <c r="L226" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8676,7 +8794,9 @@
         <v>0</v>
       </c>
       <c r="J227" t="inlineStr"/>
-      <c r="K227" t="inlineStr"/>
+      <c r="K227" t="n">
+        <v>631</v>
+      </c>
       <c r="L227" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8715,7 +8835,9 @@
         <v>0</v>
       </c>
       <c r="J228" t="inlineStr"/>
-      <c r="K228" t="inlineStr"/>
+      <c r="K228" t="n">
+        <v>631</v>
+      </c>
       <c r="L228" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8754,7 +8876,9 @@
         <v>0</v>
       </c>
       <c r="J229" t="inlineStr"/>
-      <c r="K229" t="inlineStr"/>
+      <c r="K229" t="n">
+        <v>631</v>
+      </c>
       <c r="L229" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8793,7 +8917,9 @@
         <v>0</v>
       </c>
       <c r="J230" t="inlineStr"/>
-      <c r="K230" t="inlineStr"/>
+      <c r="K230" t="n">
+        <v>631</v>
+      </c>
       <c r="L230" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8832,7 +8958,9 @@
         <v>0</v>
       </c>
       <c r="J231" t="inlineStr"/>
-      <c r="K231" t="inlineStr"/>
+      <c r="K231" t="n">
+        <v>631</v>
+      </c>
       <c r="L231" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8871,7 +8999,9 @@
         <v>0</v>
       </c>
       <c r="J232" t="inlineStr"/>
-      <c r="K232" t="inlineStr"/>
+      <c r="K232" t="n">
+        <v>631</v>
+      </c>
       <c r="L232" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8910,7 +9040,9 @@
         <v>0</v>
       </c>
       <c r="J233" t="inlineStr"/>
-      <c r="K233" t="inlineStr"/>
+      <c r="K233" t="n">
+        <v>631</v>
+      </c>
       <c r="L233" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8949,7 +9081,9 @@
         <v>0</v>
       </c>
       <c r="J234" t="inlineStr"/>
-      <c r="K234" t="inlineStr"/>
+      <c r="K234" t="n">
+        <v>631</v>
+      </c>
       <c r="L234" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8988,7 +9122,9 @@
         <v>0</v>
       </c>
       <c r="J235" t="inlineStr"/>
-      <c r="K235" t="inlineStr"/>
+      <c r="K235" t="n">
+        <v>631</v>
+      </c>
       <c r="L235" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9027,7 +9163,9 @@
         <v>0</v>
       </c>
       <c r="J236" t="inlineStr"/>
-      <c r="K236" t="inlineStr"/>
+      <c r="K236" t="n">
+        <v>631</v>
+      </c>
       <c r="L236" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9066,7 +9204,9 @@
         <v>0</v>
       </c>
       <c r="J237" t="inlineStr"/>
-      <c r="K237" t="inlineStr"/>
+      <c r="K237" t="n">
+        <v>631</v>
+      </c>
       <c r="L237" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9105,7 +9245,9 @@
         <v>0</v>
       </c>
       <c r="J238" t="inlineStr"/>
-      <c r="K238" t="inlineStr"/>
+      <c r="K238" t="n">
+        <v>631</v>
+      </c>
       <c r="L238" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9144,7 +9286,9 @@
         <v>0</v>
       </c>
       <c r="J239" t="inlineStr"/>
-      <c r="K239" t="inlineStr"/>
+      <c r="K239" t="n">
+        <v>631</v>
+      </c>
       <c r="L239" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9183,7 +9327,9 @@
         <v>0</v>
       </c>
       <c r="J240" t="inlineStr"/>
-      <c r="K240" t="inlineStr"/>
+      <c r="K240" t="n">
+        <v>631</v>
+      </c>
       <c r="L240" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9222,7 +9368,9 @@
         <v>0</v>
       </c>
       <c r="J241" t="inlineStr"/>
-      <c r="K241" t="inlineStr"/>
+      <c r="K241" t="n">
+        <v>631</v>
+      </c>
       <c r="L241" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9261,7 +9409,9 @@
         <v>0</v>
       </c>
       <c r="J242" t="inlineStr"/>
-      <c r="K242" t="inlineStr"/>
+      <c r="K242" t="n">
+        <v>631</v>
+      </c>
       <c r="L242" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9300,7 +9450,9 @@
         <v>0</v>
       </c>
       <c r="J243" t="inlineStr"/>
-      <c r="K243" t="inlineStr"/>
+      <c r="K243" t="n">
+        <v>631</v>
+      </c>
       <c r="L243" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9339,7 +9491,9 @@
         <v>0</v>
       </c>
       <c r="J244" t="inlineStr"/>
-      <c r="K244" t="inlineStr"/>
+      <c r="K244" t="n">
+        <v>631</v>
+      </c>
       <c r="L244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9378,7 +9532,9 @@
         <v>0</v>
       </c>
       <c r="J245" t="inlineStr"/>
-      <c r="K245" t="inlineStr"/>
+      <c r="K245" t="n">
+        <v>631</v>
+      </c>
       <c r="L245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9417,7 +9573,9 @@
         <v>0</v>
       </c>
       <c r="J246" t="inlineStr"/>
-      <c r="K246" t="inlineStr"/>
+      <c r="K246" t="n">
+        <v>631</v>
+      </c>
       <c r="L246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9456,7 +9614,9 @@
         <v>0</v>
       </c>
       <c r="J247" t="inlineStr"/>
-      <c r="K247" t="inlineStr"/>
+      <c r="K247" t="n">
+        <v>631</v>
+      </c>
       <c r="L247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9495,7 +9655,9 @@
         <v>0</v>
       </c>
       <c r="J248" t="inlineStr"/>
-      <c r="K248" t="inlineStr"/>
+      <c r="K248" t="n">
+        <v>631</v>
+      </c>
       <c r="L248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9534,7 +9696,9 @@
         <v>0</v>
       </c>
       <c r="J249" t="inlineStr"/>
-      <c r="K249" t="inlineStr"/>
+      <c r="K249" t="n">
+        <v>631</v>
+      </c>
       <c r="L249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9573,7 +9737,9 @@
         <v>0</v>
       </c>
       <c r="J250" t="inlineStr"/>
-      <c r="K250" t="inlineStr"/>
+      <c r="K250" t="n">
+        <v>631</v>
+      </c>
       <c r="L250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9612,7 +9778,9 @@
         <v>0</v>
       </c>
       <c r="J251" t="inlineStr"/>
-      <c r="K251" t="inlineStr"/>
+      <c r="K251" t="n">
+        <v>631</v>
+      </c>
       <c r="L251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9651,7 +9819,9 @@
         <v>0</v>
       </c>
       <c r="J252" t="inlineStr"/>
-      <c r="K252" t="inlineStr"/>
+      <c r="K252" t="n">
+        <v>631</v>
+      </c>
       <c r="L252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9690,7 +9860,9 @@
         <v>0</v>
       </c>
       <c r="J253" t="inlineStr"/>
-      <c r="K253" t="inlineStr"/>
+      <c r="K253" t="n">
+        <v>631</v>
+      </c>
       <c r="L253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9729,7 +9901,9 @@
         <v>0</v>
       </c>
       <c r="J254" t="inlineStr"/>
-      <c r="K254" t="inlineStr"/>
+      <c r="K254" t="n">
+        <v>631</v>
+      </c>
       <c r="L254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9768,7 +9942,9 @@
         <v>0</v>
       </c>
       <c r="J255" t="inlineStr"/>
-      <c r="K255" t="inlineStr"/>
+      <c r="K255" t="n">
+        <v>631</v>
+      </c>
       <c r="L255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9807,7 +9983,9 @@
         <v>0</v>
       </c>
       <c r="J256" t="inlineStr"/>
-      <c r="K256" t="inlineStr"/>
+      <c r="K256" t="n">
+        <v>631</v>
+      </c>
       <c r="L256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9846,7 +10024,9 @@
         <v>0</v>
       </c>
       <c r="J257" t="inlineStr"/>
-      <c r="K257" t="inlineStr"/>
+      <c r="K257" t="n">
+        <v>631</v>
+      </c>
       <c r="L257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9885,7 +10065,9 @@
         <v>0</v>
       </c>
       <c r="J258" t="inlineStr"/>
-      <c r="K258" t="inlineStr"/>
+      <c r="K258" t="n">
+        <v>631</v>
+      </c>
       <c r="L258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9924,7 +10106,9 @@
         <v>0</v>
       </c>
       <c r="J259" t="inlineStr"/>
-      <c r="K259" t="inlineStr"/>
+      <c r="K259" t="n">
+        <v>631</v>
+      </c>
       <c r="L259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9963,7 +10147,9 @@
         <v>0</v>
       </c>
       <c r="J260" t="inlineStr"/>
-      <c r="K260" t="inlineStr"/>
+      <c r="K260" t="n">
+        <v>631</v>
+      </c>
       <c r="L260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10002,7 +10188,9 @@
         <v>0</v>
       </c>
       <c r="J261" t="inlineStr"/>
-      <c r="K261" t="inlineStr"/>
+      <c r="K261" t="n">
+        <v>631</v>
+      </c>
       <c r="L261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10041,7 +10229,9 @@
         <v>0</v>
       </c>
       <c r="J262" t="inlineStr"/>
-      <c r="K262" t="inlineStr"/>
+      <c r="K262" t="n">
+        <v>631</v>
+      </c>
       <c r="L262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10080,7 +10270,9 @@
         <v>0</v>
       </c>
       <c r="J263" t="inlineStr"/>
-      <c r="K263" t="inlineStr"/>
+      <c r="K263" t="n">
+        <v>631</v>
+      </c>
       <c r="L263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,7 +10311,9 @@
         <v>0</v>
       </c>
       <c r="J264" t="inlineStr"/>
-      <c r="K264" t="inlineStr"/>
+      <c r="K264" t="n">
+        <v>631</v>
+      </c>
       <c r="L264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10158,7 +10352,9 @@
         <v>0</v>
       </c>
       <c r="J265" t="inlineStr"/>
-      <c r="K265" t="inlineStr"/>
+      <c r="K265" t="n">
+        <v>631</v>
+      </c>
       <c r="L265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10197,7 +10393,9 @@
         <v>0</v>
       </c>
       <c r="J266" t="inlineStr"/>
-      <c r="K266" t="inlineStr"/>
+      <c r="K266" t="n">
+        <v>631</v>
+      </c>
       <c r="L266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10236,7 +10434,9 @@
         <v>0</v>
       </c>
       <c r="J267" t="inlineStr"/>
-      <c r="K267" t="inlineStr"/>
+      <c r="K267" t="n">
+        <v>631</v>
+      </c>
       <c r="L267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10275,7 +10475,9 @@
         <v>0</v>
       </c>
       <c r="J268" t="inlineStr"/>
-      <c r="K268" t="inlineStr"/>
+      <c r="K268" t="n">
+        <v>631</v>
+      </c>
       <c r="L268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10314,7 +10516,9 @@
         <v>0</v>
       </c>
       <c r="J269" t="inlineStr"/>
-      <c r="K269" t="inlineStr"/>
+      <c r="K269" t="n">
+        <v>631</v>
+      </c>
       <c r="L269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10353,7 +10557,9 @@
         <v>0</v>
       </c>
       <c r="J270" t="inlineStr"/>
-      <c r="K270" t="inlineStr"/>
+      <c r="K270" t="n">
+        <v>631</v>
+      </c>
       <c r="L270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10392,7 +10598,9 @@
         <v>0</v>
       </c>
       <c r="J271" t="inlineStr"/>
-      <c r="K271" t="inlineStr"/>
+      <c r="K271" t="n">
+        <v>631</v>
+      </c>
       <c r="L271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10431,7 +10639,9 @@
         <v>0</v>
       </c>
       <c r="J272" t="inlineStr"/>
-      <c r="K272" t="inlineStr"/>
+      <c r="K272" t="n">
+        <v>631</v>
+      </c>
       <c r="L272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10470,7 +10680,9 @@
         <v>0</v>
       </c>
       <c r="J273" t="inlineStr"/>
-      <c r="K273" t="inlineStr"/>
+      <c r="K273" t="n">
+        <v>631</v>
+      </c>
       <c r="L273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10509,7 +10721,9 @@
         <v>0</v>
       </c>
       <c r="J274" t="inlineStr"/>
-      <c r="K274" t="inlineStr"/>
+      <c r="K274" t="n">
+        <v>631</v>
+      </c>
       <c r="L274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10548,7 +10762,9 @@
         <v>0</v>
       </c>
       <c r="J275" t="inlineStr"/>
-      <c r="K275" t="inlineStr"/>
+      <c r="K275" t="n">
+        <v>631</v>
+      </c>
       <c r="L275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10587,7 +10803,9 @@
         <v>0</v>
       </c>
       <c r="J276" t="inlineStr"/>
-      <c r="K276" t="inlineStr"/>
+      <c r="K276" t="n">
+        <v>631</v>
+      </c>
       <c r="L276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10626,7 +10844,9 @@
         <v>0</v>
       </c>
       <c r="J277" t="inlineStr"/>
-      <c r="K277" t="inlineStr"/>
+      <c r="K277" t="n">
+        <v>631</v>
+      </c>
       <c r="L277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10665,7 +10885,9 @@
         <v>0</v>
       </c>
       <c r="J278" t="inlineStr"/>
-      <c r="K278" t="inlineStr"/>
+      <c r="K278" t="n">
+        <v>631</v>
+      </c>
       <c r="L278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10704,13 +10926,17 @@
         <v>1</v>
       </c>
       <c r="J279" t="inlineStr"/>
-      <c r="K279" t="inlineStr"/>
+      <c r="K279" t="n">
+        <v>631</v>
+      </c>
       <c r="L279" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="M279" t="inlineStr"/>
+      <c r="M279" t="n">
+        <v>1.148724247226625</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
@@ -10738,7 +10964,7 @@
         <v>0</v>
       </c>
       <c r="I280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J280" t="inlineStr"/>
       <c r="K280" t="inlineStr"/>
@@ -10773,7 +10999,7 @@
         <v>0</v>
       </c>
       <c r="I281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J281" t="inlineStr"/>
       <c r="K281" t="inlineStr"/>
@@ -10808,7 +11034,7 @@
         <v>0</v>
       </c>
       <c r="I282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J282" t="inlineStr"/>
       <c r="K282" t="inlineStr"/>
@@ -10843,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="I283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J283" t="inlineStr"/>
       <c r="K283" t="inlineStr"/>
@@ -10878,7 +11104,7 @@
         <v>0</v>
       </c>
       <c r="I284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J284" t="inlineStr"/>
       <c r="K284" t="inlineStr"/>
@@ -10913,7 +11139,7 @@
         <v>0</v>
       </c>
       <c r="I285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J285" t="inlineStr"/>
       <c r="K285" t="inlineStr"/>
@@ -10948,7 +11174,7 @@
         <v>0</v>
       </c>
       <c r="I286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J286" t="inlineStr"/>
       <c r="K286" t="inlineStr"/>
@@ -10983,7 +11209,7 @@
         <v>0</v>
       </c>
       <c r="I287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J287" t="inlineStr"/>
       <c r="K287" t="inlineStr"/>
@@ -11018,7 +11244,7 @@
         <v>0</v>
       </c>
       <c r="I288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J288" t="inlineStr"/>
       <c r="K288" t="inlineStr"/>
@@ -11088,7 +11314,7 @@
         <v>0</v>
       </c>
       <c r="I290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J290" t="inlineStr"/>
       <c r="K290" t="inlineStr"/>
@@ -11158,7 +11384,7 @@
         <v>0</v>
       </c>
       <c r="I292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J292" t="inlineStr"/>
       <c r="K292" t="inlineStr"/>
@@ -11403,7 +11629,7 @@
         <v>0</v>
       </c>
       <c r="I299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J299" t="inlineStr"/>
       <c r="K299" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest PPT.xlsx
+++ b/BackTest/2019-10-27 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -3454,7 +3454,7 @@
         <v>-42616.05623772999</v>
       </c>
       <c r="H93" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-41775.79933772999</v>
       </c>
       <c r="H94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-29633.41333773</v>
       </c>
       <c r="H99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-29738.41333773</v>
       </c>
       <c r="H100" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-35273.93483773</v>
       </c>
       <c r="H101" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-30273.93483773</v>
       </c>
       <c r="H102" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-29612.17013773</v>
       </c>
       <c r="H103" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-29850.75403773</v>
       </c>
       <c r="H104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-33850.75403773</v>
       </c>
       <c r="H105" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-33845.75403773</v>
       </c>
       <c r="H106" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-33892.75403773</v>
       </c>
       <c r="H107" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H108" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H109" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H110" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-35166.25653773001</v>
       </c>
       <c r="H115" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-33470.50373773</v>
       </c>
       <c r="H118" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-34898.79733773</v>
       </c>
       <c r="H119" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-38623.29503773</v>
       </c>
       <c r="H120" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-38533.29503773</v>
       </c>
       <c r="H122" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-40754.29503773</v>
       </c>
       <c r="H124" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-41999.07743773</v>
       </c>
       <c r="H130" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-41112.12893773001</v>
       </c>
       <c r="H132" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-41029.40633773</v>
       </c>
       <c r="H133" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H135" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H136" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H137" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H138" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-42747.26549520001</v>
       </c>
       <c r="H140" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-42571.26549520001</v>
       </c>
       <c r="H144" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-43631.74709520001</v>
       </c>
       <c r="H145" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-43631.74709520001</v>
       </c>
       <c r="H146" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-43631.74709520001</v>
       </c>
       <c r="H147" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-43631.74709520001</v>
       </c>
       <c r="H148" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -8239,14 +8239,10 @@
         <v>-68009.66629520003</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
-      </c>
-      <c r="I238" t="n">
-        <v>625</v>
-      </c>
-      <c r="J238" t="n">
-        <v>625</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
+      <c r="J238" t="inlineStr"/>
       <c r="K238" t="inlineStr"/>
       <c r="L238" t="n">
         <v>1</v>
@@ -8276,19 +8272,11 @@
         <v>-68596.06629520003</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
-      </c>
-      <c r="I239" t="n">
-        <v>625</v>
-      </c>
-      <c r="J239" t="n">
-        <v>625</v>
-      </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
       <c r="L239" t="n">
         <v>1</v>
       </c>
@@ -8320,14 +8308,8 @@
         <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
-      <c r="J240" t="n">
-        <v>625</v>
-      </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
       <c r="L240" t="n">
         <v>1</v>
       </c>
@@ -8389,10 +8371,14 @@
         <v>-70077.45529520002</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
-      </c>
-      <c r="I242" t="inlineStr"/>
-      <c r="J242" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I242" t="n">
+        <v>622</v>
+      </c>
+      <c r="J242" t="n">
+        <v>622</v>
+      </c>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
@@ -8422,12 +8408,14 @@
         <v>-70338.21139520002</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>622</v>
       </c>
-      <c r="J243" t="inlineStr"/>
+      <c r="J243" t="n">
+        <v>622</v>
+      </c>
       <c r="K243" t="inlineStr">
         <is>
           <t>매수 체결</t>
@@ -8461,10 +8449,14 @@
         <v>-70323.12509520003</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
-      </c>
-      <c r="I244" t="inlineStr"/>
-      <c r="J244" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I244" t="n">
+        <v>620</v>
+      </c>
+      <c r="J244" t="n">
+        <v>622</v>
+      </c>
       <c r="K244" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8498,12 +8490,14 @@
         <v>-70479.76839520002</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>628</v>
       </c>
-      <c r="J245" t="inlineStr"/>
+      <c r="J245" t="n">
+        <v>622</v>
+      </c>
       <c r="K245" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8537,10 +8531,14 @@
         <v>-70473.63199520002</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
-      </c>
-      <c r="I246" t="inlineStr"/>
-      <c r="J246" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I246" t="n">
+        <v>622</v>
+      </c>
+      <c r="J246" t="n">
+        <v>622</v>
+      </c>
       <c r="K246" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8574,10 +8572,14 @@
         <v>-73999.96159520002</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
-      </c>
-      <c r="I247" t="inlineStr"/>
-      <c r="J247" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I247" t="n">
+        <v>630</v>
+      </c>
+      <c r="J247" t="n">
+        <v>622</v>
+      </c>
       <c r="K247" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8611,10 +8613,14 @@
         <v>-73832.96159520002</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
-      </c>
-      <c r="I248" t="inlineStr"/>
-      <c r="J248" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I248" t="n">
+        <v>623</v>
+      </c>
+      <c r="J248" t="n">
+        <v>622</v>
+      </c>
       <c r="K248" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8648,10 +8654,14 @@
         <v>-75715.96159520002</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
-      </c>
-      <c r="I249" t="inlineStr"/>
-      <c r="J249" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I249" t="n">
+        <v>624</v>
+      </c>
+      <c r="J249" t="n">
+        <v>622</v>
+      </c>
       <c r="K249" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8685,10 +8695,14 @@
         <v>-75896.60949520001</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
-      </c>
-      <c r="I250" t="inlineStr"/>
-      <c r="J250" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I250" t="n">
+        <v>622</v>
+      </c>
+      <c r="J250" t="n">
+        <v>622</v>
+      </c>
       <c r="K250" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8722,12 +8736,14 @@
         <v>-76306.24959520002</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>621</v>
       </c>
-      <c r="J251" t="inlineStr"/>
+      <c r="J251" t="n">
+        <v>622</v>
+      </c>
       <c r="K251" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8761,12 +8777,14 @@
         <v>-76062.24959520002</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>620</v>
       </c>
-      <c r="J252" t="inlineStr"/>
+      <c r="J252" t="n">
+        <v>622</v>
+      </c>
       <c r="K252" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8800,12 +8818,14 @@
         <v>-74737.96279520002</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>622</v>
       </c>
-      <c r="J253" t="inlineStr"/>
+      <c r="J253" t="n">
+        <v>622</v>
+      </c>
       <c r="K253" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8839,12 +8859,14 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>625</v>
       </c>
-      <c r="J254" t="inlineStr"/>
+      <c r="J254" t="n">
+        <v>622</v>
+      </c>
       <c r="K254" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8878,12 +8900,14 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>627</v>
       </c>
-      <c r="J255" t="inlineStr"/>
+      <c r="J255" t="n">
+        <v>622</v>
+      </c>
       <c r="K255" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8917,12 +8941,14 @@
         <v>-73039.01839520002</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>627</v>
       </c>
-      <c r="J256" t="inlineStr"/>
+      <c r="J256" t="n">
+        <v>622</v>
+      </c>
       <c r="K256" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8956,12 +8982,14 @@
         <v>-71920.01849520003</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>628</v>
       </c>
-      <c r="J257" t="inlineStr"/>
+      <c r="J257" t="n">
+        <v>622</v>
+      </c>
       <c r="K257" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -8995,12 +9023,14 @@
         <v>-70293.01849520003</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>629</v>
       </c>
-      <c r="J258" t="inlineStr"/>
+      <c r="J258" t="n">
+        <v>622</v>
+      </c>
       <c r="K258" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9034,12 +9064,14 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>632</v>
       </c>
-      <c r="J259" t="inlineStr"/>
+      <c r="J259" t="n">
+        <v>622</v>
+      </c>
       <c r="K259" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9073,12 +9105,14 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>633</v>
       </c>
-      <c r="J260" t="inlineStr"/>
+      <c r="J260" t="n">
+        <v>622</v>
+      </c>
       <c r="K260" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9112,12 +9146,14 @@
         <v>-68448.14499520003</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>633</v>
       </c>
-      <c r="J261" t="inlineStr"/>
+      <c r="J261" t="n">
+        <v>622</v>
+      </c>
       <c r="K261" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9151,12 +9187,14 @@
         <v>-67124.95039520002</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>636</v>
       </c>
-      <c r="J262" t="inlineStr"/>
+      <c r="J262" t="n">
+        <v>622</v>
+      </c>
       <c r="K262" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9190,12 +9228,14 @@
         <v>-67124.95039520002</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>637</v>
       </c>
-      <c r="J263" t="inlineStr"/>
+      <c r="J263" t="n">
+        <v>622</v>
+      </c>
       <c r="K263" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9229,12 +9269,14 @@
         <v>-67486.63269520002</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>637</v>
       </c>
-      <c r="J264" t="inlineStr"/>
+      <c r="J264" t="n">
+        <v>622</v>
+      </c>
       <c r="K264" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9268,10 +9310,14 @@
         <v>-61214.81489520003</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
-      </c>
-      <c r="I265" t="inlineStr"/>
-      <c r="J265" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I265" t="n">
+        <v>636</v>
+      </c>
+      <c r="J265" t="n">
+        <v>622</v>
+      </c>
       <c r="K265" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9305,10 +9351,14 @@
         <v>-64634.99209520002</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
-      </c>
-      <c r="I266" t="inlineStr"/>
-      <c r="J266" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I266" t="n">
+        <v>638</v>
+      </c>
+      <c r="J266" t="n">
+        <v>622</v>
+      </c>
       <c r="K266" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9342,12 +9392,14 @@
         <v>-64634.99209520002</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>637</v>
       </c>
-      <c r="J267" t="inlineStr"/>
+      <c r="J267" t="n">
+        <v>622</v>
+      </c>
       <c r="K267" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9381,12 +9433,14 @@
         <v>-65496.30229520002</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>637</v>
       </c>
-      <c r="J268" t="inlineStr"/>
+      <c r="J268" t="n">
+        <v>622</v>
+      </c>
       <c r="K268" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9420,12 +9474,14 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>636</v>
       </c>
-      <c r="J269" t="inlineStr"/>
+      <c r="J269" t="n">
+        <v>622</v>
+      </c>
       <c r="K269" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9459,12 +9515,14 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>637</v>
       </c>
-      <c r="J270" t="inlineStr"/>
+      <c r="J270" t="n">
+        <v>622</v>
+      </c>
       <c r="K270" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9498,12 +9556,14 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>637</v>
       </c>
-      <c r="J271" t="inlineStr"/>
+      <c r="J271" t="n">
+        <v>622</v>
+      </c>
       <c r="K271" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9537,12 +9597,14 @@
         <v>-64206.00839520003</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>637</v>
       </c>
-      <c r="J272" t="inlineStr"/>
+      <c r="J272" t="n">
+        <v>622</v>
+      </c>
       <c r="K272" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9576,12 +9638,14 @@
         <v>-64206.00839520003</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>638</v>
       </c>
-      <c r="J273" t="inlineStr"/>
+      <c r="J273" t="n">
+        <v>622</v>
+      </c>
       <c r="K273" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9615,12 +9679,14 @@
         <v>-62374.55289520003</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>638</v>
       </c>
-      <c r="J274" t="inlineStr"/>
+      <c r="J274" t="n">
+        <v>622</v>
+      </c>
       <c r="K274" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9654,12 +9720,14 @@
         <v>-64024.42479520003</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>639</v>
       </c>
-      <c r="J275" t="inlineStr"/>
+      <c r="J275" t="n">
+        <v>622</v>
+      </c>
       <c r="K275" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9693,12 +9761,14 @@
         <v>-63986.57799520003</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>637</v>
       </c>
-      <c r="J276" t="inlineStr"/>
+      <c r="J276" t="n">
+        <v>622</v>
+      </c>
       <c r="K276" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9732,12 +9802,14 @@
         <v>-62354.69139520003</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>638</v>
       </c>
-      <c r="J277" t="inlineStr"/>
+      <c r="J277" t="n">
+        <v>622</v>
+      </c>
       <c r="K277" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9771,12 +9843,14 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>644</v>
       </c>
-      <c r="J278" t="inlineStr"/>
+      <c r="J278" t="n">
+        <v>622</v>
+      </c>
       <c r="K278" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9810,12 +9884,14 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>638</v>
       </c>
-      <c r="J279" t="inlineStr"/>
+      <c r="J279" t="n">
+        <v>622</v>
+      </c>
       <c r="K279" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9849,12 +9925,12 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
-      </c>
-      <c r="I280" t="n">
-        <v>638</v>
-      </c>
-      <c r="J280" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
+      <c r="J280" t="n">
+        <v>622</v>
+      </c>
       <c r="K280" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9888,12 +9964,12 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
-      </c>
-      <c r="I281" t="n">
-        <v>638</v>
-      </c>
-      <c r="J281" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
+      <c r="J281" t="n">
+        <v>622</v>
+      </c>
       <c r="K281" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9927,12 +10003,14 @@
         <v>-59595.32350197003</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>638</v>
       </c>
-      <c r="J282" t="inlineStr"/>
+      <c r="J282" t="n">
+        <v>622</v>
+      </c>
       <c r="K282" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -9966,12 +10044,12 @@
         <v>-59588.32350197003</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
-      </c>
-      <c r="I283" t="n">
-        <v>640</v>
-      </c>
-      <c r="J283" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
+      <c r="J283" t="n">
+        <v>622</v>
+      </c>
       <c r="K283" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10008,7 +10086,9 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="inlineStr"/>
+      <c r="J284" t="n">
+        <v>622</v>
+      </c>
       <c r="K284" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10045,7 +10125,9 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="inlineStr"/>
+      <c r="J285" t="n">
+        <v>622</v>
+      </c>
       <c r="K285" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10082,7 +10164,9 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="inlineStr"/>
+      <c r="J286" t="n">
+        <v>622</v>
+      </c>
       <c r="K286" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10119,7 +10203,9 @@
         <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="inlineStr"/>
+      <c r="J287" t="n">
+        <v>622</v>
+      </c>
       <c r="K287" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10156,7 +10242,9 @@
         <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="inlineStr"/>
+      <c r="J288" t="n">
+        <v>622</v>
+      </c>
       <c r="K288" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10193,7 +10281,9 @@
         <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="inlineStr"/>
+      <c r="J289" t="n">
+        <v>622</v>
+      </c>
       <c r="K289" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10230,7 +10320,9 @@
         <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="inlineStr"/>
+      <c r="J290" t="n">
+        <v>622</v>
+      </c>
       <c r="K290" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10267,7 +10359,9 @@
         <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="inlineStr"/>
+      <c r="J291" t="n">
+        <v>622</v>
+      </c>
       <c r="K291" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10304,7 +10398,9 @@
         <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="inlineStr"/>
+      <c r="J292" t="n">
+        <v>622</v>
+      </c>
       <c r="K292" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10341,7 +10437,9 @@
         <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="inlineStr"/>
+      <c r="J293" t="n">
+        <v>622</v>
+      </c>
       <c r="K293" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10378,7 +10476,9 @@
         <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="inlineStr"/>
+      <c r="J294" t="n">
+        <v>622</v>
+      </c>
       <c r="K294" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10415,7 +10515,9 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="inlineStr"/>
+      <c r="J295" t="n">
+        <v>622</v>
+      </c>
       <c r="K295" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10452,7 +10554,9 @@
         <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="inlineStr"/>
+      <c r="J296" t="n">
+        <v>622</v>
+      </c>
       <c r="K296" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10489,7 +10593,9 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="inlineStr"/>
+      <c r="J297" t="n">
+        <v>622</v>
+      </c>
       <c r="K297" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10526,7 +10632,9 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="inlineStr"/>
+      <c r="J298" t="n">
+        <v>622</v>
+      </c>
       <c r="K298" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10560,12 +10668,12 @@
         <v>-75537.25565049003</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
-      </c>
-      <c r="I299" t="n">
-        <v>651</v>
-      </c>
-      <c r="J299" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
+      <c r="J299" t="n">
+        <v>622</v>
+      </c>
       <c r="K299" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10599,12 +10707,12 @@
         <v>-78904.12505049002</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
-      </c>
-      <c r="I300" t="n">
-        <v>648</v>
-      </c>
-      <c r="J300" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
+      <c r="J300" t="n">
+        <v>622</v>
+      </c>
       <c r="K300" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10638,12 +10746,12 @@
         <v>-78904.12505049002</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
-      </c>
-      <c r="I301" t="n">
-        <v>647</v>
-      </c>
-      <c r="J301" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
+      <c r="J301" t="n">
+        <v>622</v>
+      </c>
       <c r="K301" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10677,12 +10785,12 @@
         <v>-75214.67505049003</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
-      </c>
-      <c r="I302" t="n">
-        <v>647</v>
-      </c>
-      <c r="J302" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
+      <c r="J302" t="n">
+        <v>622</v>
+      </c>
       <c r="K302" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10716,12 +10824,12 @@
         <v>-75209.67505049003</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
-      </c>
-      <c r="I303" t="n">
-        <v>654</v>
-      </c>
-      <c r="J303" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
+      <c r="J303" t="n">
+        <v>622</v>
+      </c>
       <c r="K303" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10758,7 +10866,9 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="inlineStr"/>
+      <c r="J304" t="n">
+        <v>622</v>
+      </c>
       <c r="K304" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10795,7 +10905,9 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="inlineStr"/>
+      <c r="J305" t="n">
+        <v>622</v>
+      </c>
       <c r="K305" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10832,7 +10944,9 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="inlineStr"/>
+      <c r="J306" t="n">
+        <v>622</v>
+      </c>
       <c r="K306" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10869,7 +10983,9 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="inlineStr"/>
+      <c r="J307" t="n">
+        <v>622</v>
+      </c>
       <c r="K307" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10906,7 +11022,9 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="inlineStr"/>
+      <c r="J308" t="n">
+        <v>622</v>
+      </c>
       <c r="K308" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10943,7 +11061,9 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="inlineStr"/>
+      <c r="J309" t="n">
+        <v>622</v>
+      </c>
       <c r="K309" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -10980,7 +11100,9 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="inlineStr"/>
+      <c r="J310" t="n">
+        <v>622</v>
+      </c>
       <c r="K310" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11017,7 +11139,9 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="inlineStr"/>
+      <c r="J311" t="n">
+        <v>622</v>
+      </c>
       <c r="K311" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11054,7 +11178,9 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="inlineStr"/>
+      <c r="J312" t="n">
+        <v>622</v>
+      </c>
       <c r="K312" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11091,7 +11217,9 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="inlineStr"/>
+      <c r="J313" t="n">
+        <v>622</v>
+      </c>
       <c r="K313" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11128,7 +11256,9 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="inlineStr"/>
+      <c r="J314" t="n">
+        <v>622</v>
+      </c>
       <c r="K314" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11165,7 +11295,9 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="inlineStr"/>
+      <c r="J315" t="n">
+        <v>622</v>
+      </c>
       <c r="K315" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11202,7 +11334,9 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="inlineStr"/>
+      <c r="J316" t="n">
+        <v>622</v>
+      </c>
       <c r="K316" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11239,7 +11373,9 @@
         <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="inlineStr"/>
+      <c r="J317" t="n">
+        <v>622</v>
+      </c>
       <c r="K317" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11276,7 +11412,9 @@
         <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="inlineStr"/>
+      <c r="J318" t="n">
+        <v>622</v>
+      </c>
       <c r="K318" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11313,7 +11451,9 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="inlineStr"/>
+      <c r="J319" t="n">
+        <v>622</v>
+      </c>
       <c r="K319" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11350,7 +11490,9 @@
         <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="inlineStr"/>
+      <c r="J320" t="n">
+        <v>622</v>
+      </c>
       <c r="K320" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11387,7 +11529,9 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="inlineStr"/>
+      <c r="J321" t="n">
+        <v>622</v>
+      </c>
       <c r="K321" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11424,7 +11568,9 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="inlineStr"/>
+      <c r="J322" t="n">
+        <v>622</v>
+      </c>
       <c r="K322" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11461,7 +11607,9 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="inlineStr"/>
+      <c r="J323" t="n">
+        <v>622</v>
+      </c>
       <c r="K323" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11498,7 +11646,9 @@
         <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="inlineStr"/>
+      <c r="J324" t="n">
+        <v>622</v>
+      </c>
       <c r="K324" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11535,7 +11685,9 @@
         <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="inlineStr"/>
+      <c r="J325" t="n">
+        <v>622</v>
+      </c>
       <c r="K325" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11572,7 +11724,9 @@
         <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="inlineStr"/>
+      <c r="J326" t="n">
+        <v>622</v>
+      </c>
       <c r="K326" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11609,7 +11763,9 @@
         <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="inlineStr"/>
+      <c r="J327" t="n">
+        <v>622</v>
+      </c>
       <c r="K327" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11646,7 +11802,9 @@
         <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="inlineStr"/>
+      <c r="J328" t="n">
+        <v>622</v>
+      </c>
       <c r="K328" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11683,7 +11841,9 @@
         <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="inlineStr"/>
+      <c r="J329" t="n">
+        <v>622</v>
+      </c>
       <c r="K329" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11720,7 +11880,9 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="inlineStr"/>
+      <c r="J330" t="n">
+        <v>622</v>
+      </c>
       <c r="K330" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11757,7 +11919,9 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="inlineStr"/>
+      <c r="J331" t="n">
+        <v>622</v>
+      </c>
       <c r="K331" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11794,7 +11958,9 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="inlineStr"/>
+      <c r="J332" t="n">
+        <v>622</v>
+      </c>
       <c r="K332" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11831,7 +11997,9 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="inlineStr"/>
+      <c r="J333" t="n">
+        <v>622</v>
+      </c>
       <c r="K333" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11868,7 +12036,9 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="inlineStr"/>
+      <c r="J334" t="n">
+        <v>622</v>
+      </c>
       <c r="K334" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -11902,842 +12072,998 @@
         <v>-26369.16914470003</v>
       </c>
       <c r="H335" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="inlineStr"/>
+      <c r="J335" t="n">
+        <v>622</v>
+      </c>
       <c r="K335" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L335" t="n">
+        <v>1</v>
+      </c>
+      <c r="M335" t="inlineStr"/>
+    </row>
+    <row r="336">
+      <c r="A336" s="1" t="n">
+        <v>334</v>
+      </c>
+      <c r="B336" t="n">
+        <v>738</v>
+      </c>
+      <c r="C336" t="n">
+        <v>731</v>
+      </c>
+      <c r="D336" t="n">
+        <v>739</v>
+      </c>
+      <c r="E336" t="n">
+        <v>730</v>
+      </c>
+      <c r="F336" t="n">
+        <v>8403.016704080001</v>
+      </c>
+      <c r="G336" t="n">
+        <v>-17966.15244062003</v>
+      </c>
+      <c r="H336" t="n">
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
+      <c r="J336" t="n">
+        <v>622</v>
+      </c>
+      <c r="K336" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L336" t="n">
+        <v>1</v>
+      </c>
+      <c r="M336" t="inlineStr"/>
+    </row>
+    <row r="337">
+      <c r="A337" s="1" t="n">
+        <v>335</v>
+      </c>
+      <c r="B337" t="n">
+        <v>729</v>
+      </c>
+      <c r="C337" t="n">
+        <v>737</v>
+      </c>
+      <c r="D337" t="n">
+        <v>737</v>
+      </c>
+      <c r="E337" t="n">
+        <v>728</v>
+      </c>
+      <c r="F337" t="n">
+        <v>14666.01006757</v>
+      </c>
+      <c r="G337" t="n">
+        <v>-3300.142373050026</v>
+      </c>
+      <c r="H337" t="n">
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
+      <c r="J337" t="n">
+        <v>622</v>
+      </c>
+      <c r="K337" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L337" t="n">
+        <v>1</v>
+      </c>
+      <c r="M337" t="inlineStr"/>
+    </row>
+    <row r="338">
+      <c r="A338" s="1" t="n">
+        <v>336</v>
+      </c>
+      <c r="B338" t="n">
+        <v>737</v>
+      </c>
+      <c r="C338" t="n">
+        <v>728</v>
+      </c>
+      <c r="D338" t="n">
+        <v>737</v>
+      </c>
+      <c r="E338" t="n">
+        <v>728</v>
+      </c>
+      <c r="F338" t="n">
+        <v>6980.5889</v>
+      </c>
+      <c r="G338" t="n">
+        <v>-10280.73127305003</v>
+      </c>
+      <c r="H338" t="n">
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
+      <c r="J338" t="n">
+        <v>622</v>
+      </c>
+      <c r="K338" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L338" t="n">
+        <v>1</v>
+      </c>
+      <c r="M338" t="inlineStr"/>
+    </row>
+    <row r="339">
+      <c r="A339" s="1" t="n">
+        <v>337</v>
+      </c>
+      <c r="B339" t="n">
+        <v>735</v>
+      </c>
+      <c r="C339" t="n">
+        <v>716</v>
+      </c>
+      <c r="D339" t="n">
+        <v>735</v>
+      </c>
+      <c r="E339" t="n">
+        <v>716</v>
+      </c>
+      <c r="F339" t="n">
+        <v>98.57170000000001</v>
+      </c>
+      <c r="G339" t="n">
+        <v>-10379.30297305003</v>
+      </c>
+      <c r="H339" t="n">
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
+      <c r="J339" t="n">
+        <v>622</v>
+      </c>
+      <c r="K339" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L339" t="n">
+        <v>1</v>
+      </c>
+      <c r="M339" t="inlineStr"/>
+    </row>
+    <row r="340">
+      <c r="A340" s="1" t="n">
+        <v>338</v>
+      </c>
+      <c r="B340" t="n">
+        <v>734</v>
+      </c>
+      <c r="C340" t="n">
+        <v>712</v>
+      </c>
+      <c r="D340" t="n">
+        <v>734</v>
+      </c>
+      <c r="E340" t="n">
+        <v>711</v>
+      </c>
+      <c r="F340" t="n">
+        <v>4508.7991</v>
+      </c>
+      <c r="G340" t="n">
+        <v>-14888.10207305003</v>
+      </c>
+      <c r="H340" t="n">
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
+      <c r="J340" t="n">
+        <v>622</v>
+      </c>
+      <c r="K340" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L340" t="n">
+        <v>1</v>
+      </c>
+      <c r="M340" t="inlineStr"/>
+    </row>
+    <row r="341">
+      <c r="A341" s="1" t="n">
+        <v>339</v>
+      </c>
+      <c r="B341" t="n">
+        <v>715</v>
+      </c>
+      <c r="C341" t="n">
+        <v>715</v>
+      </c>
+      <c r="D341" t="n">
+        <v>724</v>
+      </c>
+      <c r="E341" t="n">
+        <v>715</v>
+      </c>
+      <c r="F341" t="n">
+        <v>4681.1241</v>
+      </c>
+      <c r="G341" t="n">
+        <v>-10206.97797305003</v>
+      </c>
+      <c r="H341" t="n">
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
+      <c r="J341" t="n">
+        <v>622</v>
+      </c>
+      <c r="K341" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L341" t="n">
+        <v>1</v>
+      </c>
+      <c r="M341" t="inlineStr"/>
+    </row>
+    <row r="342">
+      <c r="A342" s="1" t="n">
+        <v>340</v>
+      </c>
+      <c r="B342" t="n">
+        <v>715</v>
+      </c>
+      <c r="C342" t="n">
+        <v>715</v>
+      </c>
+      <c r="D342" t="n">
+        <v>720</v>
+      </c>
+      <c r="E342" t="n">
+        <v>715</v>
+      </c>
+      <c r="F342" t="n">
+        <v>9297.056399999999</v>
+      </c>
+      <c r="G342" t="n">
+        <v>-10206.97797305003</v>
+      </c>
+      <c r="H342" t="n">
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
+      <c r="J342" t="n">
+        <v>622</v>
+      </c>
+      <c r="K342" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L342" t="n">
+        <v>1</v>
+      </c>
+      <c r="M342" t="inlineStr"/>
+    </row>
+    <row r="343">
+      <c r="A343" s="1" t="n">
+        <v>341</v>
+      </c>
+      <c r="B343" t="n">
+        <v>719</v>
+      </c>
+      <c r="C343" t="n">
+        <v>719</v>
+      </c>
+      <c r="D343" t="n">
+        <v>719</v>
+      </c>
+      <c r="E343" t="n">
+        <v>719</v>
+      </c>
+      <c r="F343" t="n">
+        <v>65.5596</v>
+      </c>
+      <c r="G343" t="n">
+        <v>-10141.41837305003</v>
+      </c>
+      <c r="H343" t="n">
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
+      <c r="J343" t="n">
+        <v>622</v>
+      </c>
+      <c r="K343" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L343" t="n">
+        <v>1</v>
+      </c>
+      <c r="M343" t="inlineStr"/>
+    </row>
+    <row r="344">
+      <c r="A344" s="1" t="n">
+        <v>342</v>
+      </c>
+      <c r="B344" t="n">
+        <v>718</v>
+      </c>
+      <c r="C344" t="n">
+        <v>735</v>
+      </c>
+      <c r="D344" t="n">
+        <v>737</v>
+      </c>
+      <c r="E344" t="n">
+        <v>717</v>
+      </c>
+      <c r="F344" t="n">
+        <v>7061.2712</v>
+      </c>
+      <c r="G344" t="n">
+        <v>-3080.147173050026</v>
+      </c>
+      <c r="H344" t="n">
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
+      <c r="J344" t="n">
+        <v>622</v>
+      </c>
+      <c r="K344" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L344" t="n">
+        <v>1</v>
+      </c>
+      <c r="M344" t="inlineStr"/>
+    </row>
+    <row r="345">
+      <c r="A345" s="1" t="n">
+        <v>343</v>
+      </c>
+      <c r="B345" t="n">
+        <v>735</v>
+      </c>
+      <c r="C345" t="n">
+        <v>735</v>
+      </c>
+      <c r="D345" t="n">
+        <v>737</v>
+      </c>
+      <c r="E345" t="n">
+        <v>717</v>
+      </c>
+      <c r="F345" t="n">
+        <v>3921.615</v>
+      </c>
+      <c r="G345" t="n">
+        <v>-3080.147173050026</v>
+      </c>
+      <c r="H345" t="n">
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
+      <c r="J345" t="n">
+        <v>622</v>
+      </c>
+      <c r="K345" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L345" t="n">
+        <v>1</v>
+      </c>
+      <c r="M345" t="inlineStr"/>
+    </row>
+    <row r="346">
+      <c r="A346" s="1" t="n">
+        <v>344</v>
+      </c>
+      <c r="B346" t="n">
+        <v>735</v>
+      </c>
+      <c r="C346" t="n">
+        <v>734</v>
+      </c>
+      <c r="D346" t="n">
+        <v>735</v>
+      </c>
+      <c r="E346" t="n">
+        <v>720</v>
+      </c>
+      <c r="F346" t="n">
+        <v>2412.5091</v>
+      </c>
+      <c r="G346" t="n">
+        <v>-5492.656273050026</v>
+      </c>
+      <c r="H346" t="n">
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
+      <c r="J346" t="n">
+        <v>622</v>
+      </c>
+      <c r="K346" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L346" t="n">
+        <v>1</v>
+      </c>
+      <c r="M346" t="inlineStr"/>
+    </row>
+    <row r="347">
+      <c r="A347" s="1" t="n">
+        <v>345</v>
+      </c>
+      <c r="B347" t="n">
+        <v>721</v>
+      </c>
+      <c r="C347" t="n">
+        <v>732</v>
+      </c>
+      <c r="D347" t="n">
+        <v>732</v>
+      </c>
+      <c r="E347" t="n">
+        <v>721</v>
+      </c>
+      <c r="F347" t="n">
+        <v>142.7091</v>
+      </c>
+      <c r="G347" t="n">
+        <v>-5635.365373050026</v>
+      </c>
+      <c r="H347" t="n">
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
+      <c r="J347" t="n">
+        <v>622</v>
+      </c>
+      <c r="K347" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L347" t="n">
+        <v>1</v>
+      </c>
+      <c r="M347" t="inlineStr"/>
+    </row>
+    <row r="348">
+      <c r="A348" s="1" t="n">
+        <v>346</v>
+      </c>
+      <c r="B348" t="n">
+        <v>721</v>
+      </c>
+      <c r="C348" t="n">
+        <v>715</v>
+      </c>
+      <c r="D348" t="n">
+        <v>725</v>
+      </c>
+      <c r="E348" t="n">
+        <v>715</v>
+      </c>
+      <c r="F348" t="n">
+        <v>17526.8746</v>
+      </c>
+      <c r="G348" t="n">
+        <v>-23162.23997305003</v>
+      </c>
+      <c r="H348" t="n">
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
+      <c r="J348" t="n">
+        <v>622</v>
+      </c>
+      <c r="K348" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L348" t="n">
+        <v>1</v>
+      </c>
+      <c r="M348" t="inlineStr"/>
+    </row>
+    <row r="349">
+      <c r="A349" s="1" t="n">
+        <v>347</v>
+      </c>
+      <c r="B349" t="n">
+        <v>715</v>
+      </c>
+      <c r="C349" t="n">
+        <v>707</v>
+      </c>
+      <c r="D349" t="n">
+        <v>715</v>
+      </c>
+      <c r="E349" t="n">
+        <v>705</v>
+      </c>
+      <c r="F349" t="n">
+        <v>2184.1402</v>
+      </c>
+      <c r="G349" t="n">
+        <v>-25346.38017305003</v>
+      </c>
+      <c r="H349" t="n">
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
+      <c r="J349" t="n">
+        <v>622</v>
+      </c>
+      <c r="K349" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L349" t="n">
+        <v>1</v>
+      </c>
+      <c r="M349" t="inlineStr"/>
+    </row>
+    <row r="350">
+      <c r="A350" s="1" t="n">
+        <v>348</v>
+      </c>
+      <c r="B350" t="n">
+        <v>707</v>
+      </c>
+      <c r="C350" t="n">
+        <v>725</v>
+      </c>
+      <c r="D350" t="n">
+        <v>725</v>
+      </c>
+      <c r="E350" t="n">
+        <v>705</v>
+      </c>
+      <c r="F350" t="n">
+        <v>9801.454299999999</v>
+      </c>
+      <c r="G350" t="n">
+        <v>-15544.92587305003</v>
+      </c>
+      <c r="H350" t="n">
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
+      <c r="J350" t="n">
+        <v>622</v>
+      </c>
+      <c r="K350" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L350" t="n">
+        <v>1</v>
+      </c>
+      <c r="M350" t="inlineStr"/>
+    </row>
+    <row r="351">
+      <c r="A351" s="1" t="n">
+        <v>349</v>
+      </c>
+      <c r="B351" t="n">
+        <v>723</v>
+      </c>
+      <c r="C351" t="n">
+        <v>725</v>
+      </c>
+      <c r="D351" t="n">
+        <v>725</v>
+      </c>
+      <c r="E351" t="n">
+        <v>704</v>
+      </c>
+      <c r="F351" t="n">
+        <v>1427</v>
+      </c>
+      <c r="G351" t="n">
+        <v>-15544.92587305003</v>
+      </c>
+      <c r="H351" t="n">
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
+      <c r="J351" t="n">
+        <v>622</v>
+      </c>
+      <c r="K351" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L351" t="n">
+        <v>1</v>
+      </c>
+      <c r="M351" t="inlineStr"/>
+    </row>
+    <row r="352">
+      <c r="A352" s="1" t="n">
+        <v>350</v>
+      </c>
+      <c r="B352" t="n">
+        <v>725</v>
+      </c>
+      <c r="C352" t="n">
+        <v>727</v>
+      </c>
+      <c r="D352" t="n">
+        <v>728</v>
+      </c>
+      <c r="E352" t="n">
+        <v>712</v>
+      </c>
+      <c r="F352" t="n">
+        <v>633</v>
+      </c>
+      <c r="G352" t="n">
+        <v>-14911.92587305003</v>
+      </c>
+      <c r="H352" t="n">
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
+      <c r="J352" t="n">
+        <v>622</v>
+      </c>
+      <c r="K352" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L352" t="n">
+        <v>1</v>
+      </c>
+      <c r="M352" t="inlineStr"/>
+    </row>
+    <row r="353">
+      <c r="A353" s="1" t="n">
+        <v>351</v>
+      </c>
+      <c r="B353" t="n">
+        <v>727</v>
+      </c>
+      <c r="C353" t="n">
+        <v>734</v>
+      </c>
+      <c r="D353" t="n">
+        <v>734</v>
+      </c>
+      <c r="E353" t="n">
+        <v>727</v>
+      </c>
+      <c r="F353" t="n">
+        <v>9624.063899999999</v>
+      </c>
+      <c r="G353" t="n">
+        <v>-5287.861973050029</v>
+      </c>
+      <c r="H353" t="n">
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
+      <c r="J353" t="n">
+        <v>622</v>
+      </c>
+      <c r="K353" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L353" t="n">
+        <v>1</v>
+      </c>
+      <c r="M353" t="inlineStr"/>
+    </row>
+    <row r="354">
+      <c r="A354" s="1" t="n">
+        <v>352</v>
+      </c>
+      <c r="B354" t="n">
+        <v>719</v>
+      </c>
+      <c r="C354" t="n">
+        <v>734</v>
+      </c>
+      <c r="D354" t="n">
+        <v>734</v>
+      </c>
+      <c r="E354" t="n">
+        <v>718</v>
+      </c>
+      <c r="F354" t="n">
+        <v>502</v>
+      </c>
+      <c r="G354" t="n">
+        <v>-5287.861973050029</v>
+      </c>
+      <c r="H354" t="n">
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="n">
+        <v>622</v>
+      </c>
+      <c r="K354" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L354" t="n">
+        <v>1</v>
+      </c>
+      <c r="M354" t="inlineStr"/>
+    </row>
+    <row r="355">
+      <c r="A355" s="1" t="n">
+        <v>353</v>
+      </c>
+      <c r="B355" t="n">
+        <v>734</v>
+      </c>
+      <c r="C355" t="n">
+        <v>739</v>
+      </c>
+      <c r="D355" t="n">
+        <v>741</v>
+      </c>
+      <c r="E355" t="n">
+        <v>720</v>
+      </c>
+      <c r="F355" t="n">
+        <v>9071.400600000001</v>
+      </c>
+      <c r="G355" t="n">
+        <v>3783.538626949972</v>
+      </c>
+      <c r="H355" t="n">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="n">
+        <v>622</v>
+      </c>
+      <c r="K355" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>739</v>
+      </c>
+      <c r="C356" t="n">
+        <v>750</v>
+      </c>
+      <c r="D356" t="n">
+        <v>750</v>
+      </c>
+      <c r="E356" t="n">
+        <v>739</v>
+      </c>
+      <c r="F356" t="n">
+        <v>9805.4925</v>
+      </c>
+      <c r="G356" t="n">
+        <v>13589.03112694997</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="n">
+        <v>622</v>
+      </c>
+      <c r="K356" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>747</v>
+      </c>
+      <c r="C357" t="n">
+        <v>745</v>
+      </c>
+      <c r="D357" t="n">
+        <v>747</v>
+      </c>
+      <c r="E357" t="n">
+        <v>745</v>
+      </c>
+      <c r="F357" t="n">
+        <v>12774.0927</v>
+      </c>
+      <c r="G357" t="n">
+        <v>814.9384269499733</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="n">
+        <v>622</v>
+      </c>
+      <c r="K357" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>744</v>
+      </c>
+      <c r="C358" t="n">
+        <v>749</v>
+      </c>
+      <c r="D358" t="n">
+        <v>751</v>
+      </c>
+      <c r="E358" t="n">
+        <v>726</v>
+      </c>
+      <c r="F358" t="n">
+        <v>9789.146500000001</v>
+      </c>
+      <c r="G358" t="n">
+        <v>10604.08492694997</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="n">
+        <v>622</v>
+      </c>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>731</v>
+      </c>
+      <c r="C359" t="n">
+        <v>749</v>
+      </c>
+      <c r="D359" t="n">
+        <v>749</v>
+      </c>
+      <c r="E359" t="n">
+        <v>731</v>
+      </c>
+      <c r="F359" t="n">
+        <v>1958.44610053</v>
+      </c>
+      <c r="G359" t="n">
+        <v>10604.08492694997</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="n">
+        <v>622</v>
+      </c>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>740</v>
+      </c>
+      <c r="C360" t="n">
+        <v>735</v>
+      </c>
+      <c r="D360" t="n">
+        <v>746</v>
+      </c>
+      <c r="E360" t="n">
+        <v>735</v>
+      </c>
+      <c r="F360" t="n">
+        <v>9018.1131</v>
+      </c>
+      <c r="G360" t="n">
+        <v>1585.971826949974</v>
+      </c>
+      <c r="H360" t="n">
+        <v>2</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="n">
+        <v>622</v>
+      </c>
+      <c r="K360" t="inlineStr">
         <is>
           <t>매도 체결</t>
         </is>
       </c>
-      <c r="L335" t="inlineStr"/>
-      <c r="M335" t="inlineStr"/>
-    </row>
-    <row r="336">
-      <c r="A336" s="1" t="n">
-        <v>334</v>
-      </c>
-      <c r="B336" t="n">
-        <v>738</v>
-      </c>
-      <c r="C336" t="n">
-        <v>731</v>
-      </c>
-      <c r="D336" t="n">
-        <v>739</v>
-      </c>
-      <c r="E336" t="n">
-        <v>730</v>
-      </c>
-      <c r="F336" t="n">
-        <v>8403.016704080001</v>
-      </c>
-      <c r="G336" t="n">
-        <v>-17966.15244062003</v>
-      </c>
-      <c r="H336" t="n">
-        <v>3</v>
-      </c>
-      <c r="I336" t="inlineStr"/>
-      <c r="J336" t="inlineStr"/>
-      <c r="K336" t="inlineStr"/>
-      <c r="L336" t="n">
-        <v>1</v>
-      </c>
-      <c r="M336" t="inlineStr"/>
-    </row>
-    <row r="337">
-      <c r="A337" s="1" t="n">
-        <v>335</v>
-      </c>
-      <c r="B337" t="n">
-        <v>729</v>
-      </c>
-      <c r="C337" t="n">
-        <v>737</v>
-      </c>
-      <c r="D337" t="n">
-        <v>737</v>
-      </c>
-      <c r="E337" t="n">
-        <v>728</v>
-      </c>
-      <c r="F337" t="n">
-        <v>14666.01006757</v>
-      </c>
-      <c r="G337" t="n">
-        <v>-3300.142373050026</v>
-      </c>
-      <c r="H337" t="n">
-        <v>0</v>
-      </c>
-      <c r="I337" t="inlineStr"/>
-      <c r="J337" t="inlineStr"/>
-      <c r="K337" t="inlineStr"/>
-      <c r="L337" t="n">
-        <v>1</v>
-      </c>
-      <c r="M337" t="inlineStr"/>
-    </row>
-    <row r="338">
-      <c r="A338" s="1" t="n">
-        <v>336</v>
-      </c>
-      <c r="B338" t="n">
-        <v>737</v>
-      </c>
-      <c r="C338" t="n">
-        <v>728</v>
-      </c>
-      <c r="D338" t="n">
-        <v>737</v>
-      </c>
-      <c r="E338" t="n">
-        <v>728</v>
-      </c>
-      <c r="F338" t="n">
-        <v>6980.5889</v>
-      </c>
-      <c r="G338" t="n">
-        <v>-10280.73127305003</v>
-      </c>
-      <c r="H338" t="n">
-        <v>0</v>
-      </c>
-      <c r="I338" t="inlineStr"/>
-      <c r="J338" t="inlineStr"/>
-      <c r="K338" t="inlineStr"/>
-      <c r="L338" t="n">
-        <v>1</v>
-      </c>
-      <c r="M338" t="inlineStr"/>
-    </row>
-    <row r="339">
-      <c r="A339" s="1" t="n">
-        <v>337</v>
-      </c>
-      <c r="B339" t="n">
-        <v>735</v>
-      </c>
-      <c r="C339" t="n">
-        <v>716</v>
-      </c>
-      <c r="D339" t="n">
-        <v>735</v>
-      </c>
-      <c r="E339" t="n">
-        <v>716</v>
-      </c>
-      <c r="F339" t="n">
-        <v>98.57170000000001</v>
-      </c>
-      <c r="G339" t="n">
-        <v>-10379.30297305003</v>
-      </c>
-      <c r="H339" t="n">
-        <v>0</v>
-      </c>
-      <c r="I339" t="inlineStr"/>
-      <c r="J339" t="inlineStr"/>
-      <c r="K339" t="inlineStr"/>
-      <c r="L339" t="n">
-        <v>1</v>
-      </c>
-      <c r="M339" t="inlineStr"/>
-    </row>
-    <row r="340">
-      <c r="A340" s="1" t="n">
-        <v>338</v>
-      </c>
-      <c r="B340" t="n">
-        <v>734</v>
-      </c>
-      <c r="C340" t="n">
-        <v>712</v>
-      </c>
-      <c r="D340" t="n">
-        <v>734</v>
-      </c>
-      <c r="E340" t="n">
-        <v>711</v>
-      </c>
-      <c r="F340" t="n">
-        <v>4508.7991</v>
-      </c>
-      <c r="G340" t="n">
-        <v>-14888.10207305003</v>
-      </c>
-      <c r="H340" t="n">
-        <v>0</v>
-      </c>
-      <c r="I340" t="inlineStr"/>
-      <c r="J340" t="inlineStr"/>
-      <c r="K340" t="inlineStr"/>
-      <c r="L340" t="n">
-        <v>1</v>
-      </c>
-      <c r="M340" t="inlineStr"/>
-    </row>
-    <row r="341">
-      <c r="A341" s="1" t="n">
-        <v>339</v>
-      </c>
-      <c r="B341" t="n">
-        <v>715</v>
-      </c>
-      <c r="C341" t="n">
-        <v>715</v>
-      </c>
-      <c r="D341" t="n">
-        <v>724</v>
-      </c>
-      <c r="E341" t="n">
-        <v>715</v>
-      </c>
-      <c r="F341" t="n">
-        <v>4681.1241</v>
-      </c>
-      <c r="G341" t="n">
-        <v>-10206.97797305003</v>
-      </c>
-      <c r="H341" t="n">
-        <v>0</v>
-      </c>
-      <c r="I341" t="inlineStr"/>
-      <c r="J341" t="inlineStr"/>
-      <c r="K341" t="inlineStr"/>
-      <c r="L341" t="n">
-        <v>1</v>
-      </c>
-      <c r="M341" t="inlineStr"/>
-    </row>
-    <row r="342">
-      <c r="A342" s="1" t="n">
-        <v>340</v>
-      </c>
-      <c r="B342" t="n">
-        <v>715</v>
-      </c>
-      <c r="C342" t="n">
-        <v>715</v>
-      </c>
-      <c r="D342" t="n">
-        <v>720</v>
-      </c>
-      <c r="E342" t="n">
-        <v>715</v>
-      </c>
-      <c r="F342" t="n">
-        <v>9297.056399999999</v>
-      </c>
-      <c r="G342" t="n">
-        <v>-10206.97797305003</v>
-      </c>
-      <c r="H342" t="n">
-        <v>0</v>
-      </c>
-      <c r="I342" t="inlineStr"/>
-      <c r="J342" t="inlineStr"/>
-      <c r="K342" t="inlineStr"/>
-      <c r="L342" t="n">
-        <v>1</v>
-      </c>
-      <c r="M342" t="inlineStr"/>
-    </row>
-    <row r="343">
-      <c r="A343" s="1" t="n">
-        <v>341</v>
-      </c>
-      <c r="B343" t="n">
-        <v>719</v>
-      </c>
-      <c r="C343" t="n">
-        <v>719</v>
-      </c>
-      <c r="D343" t="n">
-        <v>719</v>
-      </c>
-      <c r="E343" t="n">
-        <v>719</v>
-      </c>
-      <c r="F343" t="n">
-        <v>65.5596</v>
-      </c>
-      <c r="G343" t="n">
-        <v>-10141.41837305003</v>
-      </c>
-      <c r="H343" t="n">
-        <v>0</v>
-      </c>
-      <c r="I343" t="inlineStr"/>
-      <c r="J343" t="inlineStr"/>
-      <c r="K343" t="inlineStr"/>
-      <c r="L343" t="n">
-        <v>1</v>
-      </c>
-      <c r="M343" t="inlineStr"/>
-    </row>
-    <row r="344">
-      <c r="A344" s="1" t="n">
-        <v>342</v>
-      </c>
-      <c r="B344" t="n">
-        <v>718</v>
-      </c>
-      <c r="C344" t="n">
-        <v>735</v>
-      </c>
-      <c r="D344" t="n">
-        <v>737</v>
-      </c>
-      <c r="E344" t="n">
-        <v>717</v>
-      </c>
-      <c r="F344" t="n">
-        <v>7061.2712</v>
-      </c>
-      <c r="G344" t="n">
-        <v>-3080.147173050026</v>
-      </c>
-      <c r="H344" t="n">
-        <v>0</v>
-      </c>
-      <c r="I344" t="inlineStr"/>
-      <c r="J344" t="inlineStr"/>
-      <c r="K344" t="inlineStr"/>
-      <c r="L344" t="n">
-        <v>1</v>
-      </c>
-      <c r="M344" t="inlineStr"/>
-    </row>
-    <row r="345">
-      <c r="A345" s="1" t="n">
-        <v>343</v>
-      </c>
-      <c r="B345" t="n">
-        <v>735</v>
-      </c>
-      <c r="C345" t="n">
-        <v>735</v>
-      </c>
-      <c r="D345" t="n">
-        <v>737</v>
-      </c>
-      <c r="E345" t="n">
-        <v>717</v>
-      </c>
-      <c r="F345" t="n">
-        <v>3921.615</v>
-      </c>
-      <c r="G345" t="n">
-        <v>-3080.147173050026</v>
-      </c>
-      <c r="H345" t="n">
-        <v>0</v>
-      </c>
-      <c r="I345" t="inlineStr"/>
-      <c r="J345" t="inlineStr"/>
-      <c r="K345" t="inlineStr"/>
-      <c r="L345" t="n">
-        <v>1</v>
-      </c>
-      <c r="M345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" s="1" t="n">
-        <v>344</v>
-      </c>
-      <c r="B346" t="n">
-        <v>735</v>
-      </c>
-      <c r="C346" t="n">
-        <v>734</v>
-      </c>
-      <c r="D346" t="n">
-        <v>735</v>
-      </c>
-      <c r="E346" t="n">
-        <v>720</v>
-      </c>
-      <c r="F346" t="n">
-        <v>2412.5091</v>
-      </c>
-      <c r="G346" t="n">
-        <v>-5492.656273050026</v>
-      </c>
-      <c r="H346" t="n">
-        <v>0</v>
-      </c>
-      <c r="I346" t="inlineStr"/>
-      <c r="J346" t="inlineStr"/>
-      <c r="K346" t="inlineStr"/>
-      <c r="L346" t="n">
-        <v>1</v>
-      </c>
-      <c r="M346" t="inlineStr"/>
-    </row>
-    <row r="347">
-      <c r="A347" s="1" t="n">
-        <v>345</v>
-      </c>
-      <c r="B347" t="n">
-        <v>721</v>
-      </c>
-      <c r="C347" t="n">
-        <v>732</v>
-      </c>
-      <c r="D347" t="n">
-        <v>732</v>
-      </c>
-      <c r="E347" t="n">
-        <v>721</v>
-      </c>
-      <c r="F347" t="n">
-        <v>142.7091</v>
-      </c>
-      <c r="G347" t="n">
-        <v>-5635.365373050026</v>
-      </c>
-      <c r="H347" t="n">
-        <v>0</v>
-      </c>
-      <c r="I347" t="inlineStr"/>
-      <c r="J347" t="inlineStr"/>
-      <c r="K347" t="inlineStr"/>
-      <c r="L347" t="n">
-        <v>1</v>
-      </c>
-      <c r="M347" t="inlineStr"/>
-    </row>
-    <row r="348">
-      <c r="A348" s="1" t="n">
-        <v>346</v>
-      </c>
-      <c r="B348" t="n">
-        <v>721</v>
-      </c>
-      <c r="C348" t="n">
-        <v>715</v>
-      </c>
-      <c r="D348" t="n">
-        <v>725</v>
-      </c>
-      <c r="E348" t="n">
-        <v>715</v>
-      </c>
-      <c r="F348" t="n">
-        <v>17526.8746</v>
-      </c>
-      <c r="G348" t="n">
-        <v>-23162.23997305003</v>
-      </c>
-      <c r="H348" t="n">
-        <v>0</v>
-      </c>
-      <c r="I348" t="inlineStr"/>
-      <c r="J348" t="inlineStr"/>
-      <c r="K348" t="inlineStr"/>
-      <c r="L348" t="n">
-        <v>1</v>
-      </c>
-      <c r="M348" t="inlineStr"/>
-    </row>
-    <row r="349">
-      <c r="A349" s="1" t="n">
-        <v>347</v>
-      </c>
-      <c r="B349" t="n">
-        <v>715</v>
-      </c>
-      <c r="C349" t="n">
-        <v>707</v>
-      </c>
-      <c r="D349" t="n">
-        <v>715</v>
-      </c>
-      <c r="E349" t="n">
-        <v>705</v>
-      </c>
-      <c r="F349" t="n">
-        <v>2184.1402</v>
-      </c>
-      <c r="G349" t="n">
-        <v>-25346.38017305003</v>
-      </c>
-      <c r="H349" t="n">
-        <v>0</v>
-      </c>
-      <c r="I349" t="inlineStr"/>
-      <c r="J349" t="inlineStr"/>
-      <c r="K349" t="inlineStr"/>
-      <c r="L349" t="n">
-        <v>1</v>
-      </c>
-      <c r="M349" t="inlineStr"/>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="n">
-        <v>348</v>
-      </c>
-      <c r="B350" t="n">
-        <v>707</v>
-      </c>
-      <c r="C350" t="n">
-        <v>725</v>
-      </c>
-      <c r="D350" t="n">
-        <v>725</v>
-      </c>
-      <c r="E350" t="n">
-        <v>705</v>
-      </c>
-      <c r="F350" t="n">
-        <v>9801.454299999999</v>
-      </c>
-      <c r="G350" t="n">
-        <v>-15544.92587305003</v>
-      </c>
-      <c r="H350" t="n">
-        <v>0</v>
-      </c>
-      <c r="I350" t="inlineStr"/>
-      <c r="J350" t="inlineStr"/>
-      <c r="K350" t="inlineStr"/>
-      <c r="L350" t="n">
-        <v>1</v>
-      </c>
-      <c r="M350" t="inlineStr"/>
-    </row>
-    <row r="351">
-      <c r="A351" s="1" t="n">
-        <v>349</v>
-      </c>
-      <c r="B351" t="n">
-        <v>723</v>
-      </c>
-      <c r="C351" t="n">
-        <v>725</v>
-      </c>
-      <c r="D351" t="n">
-        <v>725</v>
-      </c>
-      <c r="E351" t="n">
-        <v>704</v>
-      </c>
-      <c r="F351" t="n">
-        <v>1427</v>
-      </c>
-      <c r="G351" t="n">
-        <v>-15544.92587305003</v>
-      </c>
-      <c r="H351" t="n">
-        <v>0</v>
-      </c>
-      <c r="I351" t="inlineStr"/>
-      <c r="J351" t="inlineStr"/>
-      <c r="K351" t="inlineStr"/>
-      <c r="L351" t="n">
-        <v>1</v>
-      </c>
-      <c r="M351" t="inlineStr"/>
-    </row>
-    <row r="352">
-      <c r="A352" s="1" t="n">
-        <v>350</v>
-      </c>
-      <c r="B352" t="n">
-        <v>725</v>
-      </c>
-      <c r="C352" t="n">
-        <v>727</v>
-      </c>
-      <c r="D352" t="n">
-        <v>728</v>
-      </c>
-      <c r="E352" t="n">
-        <v>712</v>
-      </c>
-      <c r="F352" t="n">
-        <v>633</v>
-      </c>
-      <c r="G352" t="n">
-        <v>-14911.92587305003</v>
-      </c>
-      <c r="H352" t="n">
-        <v>0</v>
-      </c>
-      <c r="I352" t="inlineStr"/>
-      <c r="J352" t="inlineStr"/>
-      <c r="K352" t="inlineStr"/>
-      <c r="L352" t="n">
-        <v>1</v>
-      </c>
-      <c r="M352" t="inlineStr"/>
-    </row>
-    <row r="353">
-      <c r="A353" s="1" t="n">
-        <v>351</v>
-      </c>
-      <c r="B353" t="n">
-        <v>727</v>
-      </c>
-      <c r="C353" t="n">
-        <v>734</v>
-      </c>
-      <c r="D353" t="n">
-        <v>734</v>
-      </c>
-      <c r="E353" t="n">
-        <v>727</v>
-      </c>
-      <c r="F353" t="n">
-        <v>9624.063899999999</v>
-      </c>
-      <c r="G353" t="n">
-        <v>-5287.861973050029</v>
-      </c>
-      <c r="H353" t="n">
-        <v>0</v>
-      </c>
-      <c r="I353" t="inlineStr"/>
-      <c r="J353" t="inlineStr"/>
-      <c r="K353" t="inlineStr"/>
-      <c r="L353" t="n">
-        <v>1</v>
-      </c>
-      <c r="M353" t="inlineStr"/>
-    </row>
-    <row r="354">
-      <c r="A354" s="1" t="n">
-        <v>352</v>
-      </c>
-      <c r="B354" t="n">
-        <v>719</v>
-      </c>
-      <c r="C354" t="n">
-        <v>734</v>
-      </c>
-      <c r="D354" t="n">
-        <v>734</v>
-      </c>
-      <c r="E354" t="n">
-        <v>718</v>
-      </c>
-      <c r="F354" t="n">
-        <v>502</v>
-      </c>
-      <c r="G354" t="n">
-        <v>-5287.861973050029</v>
-      </c>
-      <c r="H354" t="n">
-        <v>0</v>
-      </c>
-      <c r="I354" t="inlineStr"/>
-      <c r="J354" t="inlineStr"/>
-      <c r="K354" t="inlineStr"/>
-      <c r="L354" t="n">
-        <v>1</v>
-      </c>
-      <c r="M354" t="inlineStr"/>
-    </row>
-    <row r="355">
-      <c r="A355" s="1" t="n">
-        <v>353</v>
-      </c>
-      <c r="B355" t="n">
-        <v>734</v>
-      </c>
-      <c r="C355" t="n">
-        <v>739</v>
-      </c>
-      <c r="D355" t="n">
-        <v>741</v>
-      </c>
-      <c r="E355" t="n">
-        <v>720</v>
-      </c>
-      <c r="F355" t="n">
-        <v>9071.400600000001</v>
-      </c>
-      <c r="G355" t="n">
-        <v>3783.538626949972</v>
-      </c>
-      <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="inlineStr"/>
-      <c r="J355" t="inlineStr"/>
-      <c r="K355" t="inlineStr"/>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
-        <v>739</v>
-      </c>
-      <c r="C356" t="n">
-        <v>750</v>
-      </c>
-      <c r="D356" t="n">
-        <v>750</v>
-      </c>
-      <c r="E356" t="n">
-        <v>739</v>
-      </c>
-      <c r="F356" t="n">
-        <v>9805.4925</v>
-      </c>
-      <c r="G356" t="n">
-        <v>13589.03112694997</v>
-      </c>
-      <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="inlineStr"/>
-      <c r="K356" t="inlineStr"/>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>747</v>
-      </c>
-      <c r="C357" t="n">
-        <v>745</v>
-      </c>
-      <c r="D357" t="n">
-        <v>747</v>
-      </c>
-      <c r="E357" t="n">
-        <v>745</v>
-      </c>
-      <c r="F357" t="n">
-        <v>12774.0927</v>
-      </c>
-      <c r="G357" t="n">
-        <v>814.9384269499733</v>
-      </c>
-      <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="inlineStr"/>
-      <c r="K357" t="inlineStr"/>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>744</v>
-      </c>
-      <c r="C358" t="n">
-        <v>749</v>
-      </c>
-      <c r="D358" t="n">
-        <v>751</v>
-      </c>
-      <c r="E358" t="n">
-        <v>726</v>
-      </c>
-      <c r="F358" t="n">
-        <v>9789.146500000001</v>
-      </c>
-      <c r="G358" t="n">
-        <v>10604.08492694997</v>
-      </c>
-      <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
-      <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>731</v>
-      </c>
-      <c r="C359" t="n">
-        <v>749</v>
-      </c>
-      <c r="D359" t="n">
-        <v>749</v>
-      </c>
-      <c r="E359" t="n">
-        <v>731</v>
-      </c>
-      <c r="F359" t="n">
-        <v>1958.44610053</v>
-      </c>
-      <c r="G359" t="n">
-        <v>10604.08492694997</v>
-      </c>
-      <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
-      <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>740</v>
-      </c>
-      <c r="C360" t="n">
-        <v>735</v>
-      </c>
-      <c r="D360" t="n">
-        <v>746</v>
-      </c>
-      <c r="E360" t="n">
-        <v>735</v>
-      </c>
-      <c r="F360" t="n">
-        <v>9018.1131</v>
-      </c>
-      <c r="G360" t="n">
-        <v>1585.971826949974</v>
-      </c>
-      <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
-      <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
+        <v>1.176672025723473</v>
+      </c>
+      <c r="M360" t="n">
+        <v>1.181372549019608</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -12762,7 +13088,7 @@
         <v>-2996.394873050026</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12795,7 +13121,7 @@
         <v>1563.159826949974</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12828,7 +13154,7 @@
         <v>2831.758291279973</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12861,7 +13187,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12927,7 +13253,7 @@
         <v>5259.653991279974</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12960,7 +13286,7 @@
         <v>2543.520491279974</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12993,7 +13319,7 @@
         <v>2251.903864259973</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13521,7 +13847,7 @@
         <v>-3776.619027230026</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13554,7 +13880,7 @@
         <v>-5023.619027230026</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13587,7 +13913,7 @@
         <v>-4853.432527230027</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13620,7 +13946,7 @@
         <v>-4853.432527230027</v>
       </c>
       <c r="H387" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13653,7 +13979,7 @@
         <v>-5763.276927230027</v>
       </c>
       <c r="H388" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13686,7 +14012,7 @@
         <v>-5499.465814050027</v>
       </c>
       <c r="H389" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13752,7 +14078,7 @@
         <v>-7486.730714050027</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -13785,7 +14111,7 @@
         <v>-10508.56601405003</v>
       </c>
       <c r="H392" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -13818,7 +14144,7 @@
         <v>-3937.361914050028</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -13851,7 +14177,7 @@
         <v>-6322.010200870028</v>
       </c>
       <c r="H394" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -13884,7 +14210,7 @@
         <v>-6140.604000870027</v>
       </c>
       <c r="H395" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -13917,7 +14243,7 @@
         <v>-3958.074200870028</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13983,7 +14309,7 @@
         <v>-5518.264400870028</v>
       </c>
       <c r="H398" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14016,7 +14342,7 @@
         <v>-5112.917800870028</v>
       </c>
       <c r="H399" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14115,7 +14441,7 @@
         <v>-5112.917800870028</v>
       </c>
       <c r="H402" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="inlineStr"/>
@@ -14148,7 +14474,7 @@
         <v>-5727.513400870028</v>
       </c>
       <c r="H403" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="inlineStr"/>
@@ -14214,7 +14540,7 @@
         <v>-8401.561800870028</v>
       </c>
       <c r="H405" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -14544,7 +14870,7 @@
         <v>-12149.33310087003</v>
       </c>
       <c r="H415" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14610,7 +14936,7 @@
         <v>-12231.05430087003</v>
       </c>
       <c r="H417" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -14676,7 +15002,7 @@
         <v>-16140.41590087003</v>
       </c>
       <c r="H419" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14709,7 +15035,7 @@
         <v>-17933.53990087003</v>
       </c>
       <c r="H420" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -14742,7 +15068,7 @@
         <v>-22047.12070087003</v>
       </c>
       <c r="H421" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -14775,7 +15101,7 @@
         <v>-22047.12070087003</v>
       </c>
       <c r="H422" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -14808,7 +15134,7 @@
         <v>-23404.96710087003</v>
       </c>
       <c r="H423" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -14841,7 +15167,7 @@
         <v>-31174.76460087003</v>
       </c>
       <c r="H424" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -14874,7 +15200,7 @@
         <v>-31087.64960087003</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -14907,7 +15233,7 @@
         <v>-33974.53460087003</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -14940,7 +15266,7 @@
         <v>-35246.58330087003</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -14973,7 +15299,7 @@
         <v>-40048.46100087003</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15006,7 +15332,7 @@
         <v>-37069.92750087003</v>
       </c>
       <c r="H429" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15039,7 +15365,7 @@
         <v>-42614.10400087003</v>
       </c>
       <c r="H430" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15072,7 +15398,7 @@
         <v>-47311.48910087003</v>
       </c>
       <c r="H431" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15105,7 +15431,7 @@
         <v>-56855.80690087003</v>
       </c>
       <c r="H432" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15138,7 +15464,7 @@
         <v>-59081.80690087003</v>
       </c>
       <c r="H433" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15171,7 +15497,7 @@
         <v>-63306.45280087003</v>
       </c>
       <c r="H434" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15204,7 +15530,7 @@
         <v>-63306.45280087003</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15237,7 +15563,7 @@
         <v>-64581.45280087003</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15270,7 +15596,7 @@
         <v>-64581.45280087003</v>
       </c>
       <c r="H437" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15303,7 +15629,7 @@
         <v>-63807.46740087003</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15336,7 +15662,7 @@
         <v>-63807.46740087003</v>
       </c>
       <c r="H439" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15369,7 +15695,7 @@
         <v>-62530.76360087003</v>
       </c>
       <c r="H440" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15402,7 +15728,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H441" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15435,7 +15761,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H442" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15468,7 +15794,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15501,7 +15827,7 @@
         <v>-61104.41232609003</v>
       </c>
       <c r="H444" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -16953,7 +17279,7 @@
         <v>-63973.56402609003</v>
       </c>
       <c r="H488" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I488" t="inlineStr"/>
       <c r="J488" t="inlineStr"/>
@@ -16986,7 +17312,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H489" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I489" t="inlineStr"/>
       <c r="J489" t="inlineStr"/>
@@ -17019,7 +17345,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H490" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I490" t="inlineStr"/>
       <c r="J490" t="inlineStr"/>
@@ -17052,7 +17378,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H491" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -17085,7 +17411,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H492" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -17118,7 +17444,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H493" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I493" t="inlineStr"/>
       <c r="J493" t="inlineStr"/>
@@ -17151,7 +17477,7 @@
         <v>-62969.57562609003</v>
       </c>
       <c r="H494" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I494" t="inlineStr"/>
       <c r="J494" t="inlineStr"/>
@@ -17448,7 +17774,7 @@
         <v>-56806.73282609004</v>
       </c>
       <c r="H503" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I503" t="inlineStr"/>
       <c r="J503" t="inlineStr"/>
@@ -17481,7 +17807,7 @@
         <v>-56806.73282609004</v>
       </c>
       <c r="H504" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I504" t="inlineStr"/>
       <c r="J504" t="inlineStr"/>
@@ -17514,7 +17840,7 @@
         <v>-56806.73282609004</v>
       </c>
       <c r="H505" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I505" t="inlineStr"/>
       <c r="J505" t="inlineStr"/>
@@ -17547,7 +17873,7 @@
         <v>-56913.96712609004</v>
       </c>
       <c r="H506" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I506" t="inlineStr"/>
       <c r="J506" t="inlineStr"/>
@@ -17613,7 +17939,7 @@
         <v>-58035.08612609003</v>
       </c>
       <c r="H508" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I508" t="inlineStr"/>
       <c r="J508" t="inlineStr"/>
@@ -17745,7 +18071,7 @@
         <v>-58025.08612609003</v>
       </c>
       <c r="H512" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I512" t="inlineStr"/>
       <c r="J512" t="inlineStr"/>
@@ -17778,7 +18104,7 @@
         <v>-58062.88032609003</v>
       </c>
       <c r="H513" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I513" t="inlineStr"/>
       <c r="J513" t="inlineStr"/>
@@ -17811,7 +18137,7 @@
         <v>-58062.88032609003</v>
       </c>
       <c r="H514" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I514" t="inlineStr"/>
       <c r="J514" t="inlineStr"/>
@@ -17844,7 +18170,7 @@
         <v>-58060.91052609003</v>
       </c>
       <c r="H515" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I515" t="inlineStr"/>
       <c r="J515" t="inlineStr"/>
@@ -17877,7 +18203,7 @@
         <v>-58167.91052609003</v>
       </c>
       <c r="H516" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I516" t="inlineStr"/>
       <c r="J516" t="inlineStr"/>
@@ -17910,7 +18236,7 @@
         <v>-58166.91052609003</v>
       </c>
       <c r="H517" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I517" t="inlineStr"/>
       <c r="J517" t="inlineStr"/>
@@ -17943,7 +18269,7 @@
         <v>-58384.41842609003</v>
       </c>
       <c r="H518" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I518" t="inlineStr"/>
       <c r="J518" t="inlineStr"/>
@@ -17976,7 +18302,7 @@
         <v>-58658.20772609003</v>
       </c>
       <c r="H519" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I519" t="inlineStr"/>
       <c r="J519" t="inlineStr"/>
@@ -18009,7 +18335,7 @@
         <v>-58549.68522609003</v>
       </c>
       <c r="H520" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I520" t="inlineStr"/>
       <c r="J520" t="inlineStr"/>
@@ -18042,7 +18368,7 @@
         <v>-58144.66522609003</v>
       </c>
       <c r="H521" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I521" t="inlineStr"/>
       <c r="J521" t="inlineStr"/>
@@ -18075,7 +18401,7 @@
         <v>-64202.92852609003</v>
       </c>
       <c r="H522" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I522" t="inlineStr"/>
       <c r="J522" t="inlineStr"/>
@@ -18108,7 +18434,7 @@
         <v>-63464.61622609003</v>
       </c>
       <c r="H523" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I523" t="inlineStr"/>
       <c r="J523" t="inlineStr"/>
@@ -18141,7 +18467,7 @@
         <v>-64025.19822609003</v>
       </c>
       <c r="H524" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I524" t="inlineStr"/>
       <c r="J524" t="inlineStr"/>
@@ -18174,7 +18500,7 @@
         <v>-63759.59372609003</v>
       </c>
       <c r="H525" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I525" t="inlineStr"/>
       <c r="J525" t="inlineStr"/>
@@ -18207,7 +18533,7 @@
         <v>-63402.20292609003</v>
       </c>
       <c r="H526" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -18273,7 +18599,7 @@
         <v>-60606.98502609003</v>
       </c>
       <c r="H528" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -18306,7 +18632,7 @@
         <v>-61628.24882609003</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -18339,7 +18665,7 @@
         <v>-65770.37992609003</v>
       </c>
       <c r="H530" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I530" t="inlineStr"/>
       <c r="J530" t="inlineStr"/>
@@ -18372,7 +18698,7 @@
         <v>-66615.64582609003</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18405,7 +18731,7 @@
         <v>-66615.64582609003</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18438,7 +18764,7 @@
         <v>-66132.00002609003</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18471,7 +18797,7 @@
         <v>-66132.00002609003</v>
       </c>
       <c r="H534" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I534" t="inlineStr"/>
       <c r="J534" t="inlineStr"/>
@@ -18504,7 +18830,7 @@
         <v>-66015.36812609003</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18537,7 +18863,7 @@
         <v>-65947.95842609003</v>
       </c>
       <c r="H536" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I536" t="inlineStr"/>
       <c r="J536" t="inlineStr"/>
@@ -18570,7 +18896,7 @@
         <v>-64241.91872609003</v>
       </c>
       <c r="H537" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I537" t="inlineStr"/>
       <c r="J537" t="inlineStr"/>
@@ -18603,7 +18929,7 @@
         <v>-74386.50182609003</v>
       </c>
       <c r="H538" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I538" t="inlineStr"/>
       <c r="J538" t="inlineStr"/>
@@ -18636,7 +18962,7 @@
         <v>-79062.45622609003</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18669,7 +18995,7 @@
         <v>-78166.45622609003</v>
       </c>
       <c r="H540" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I540" t="inlineStr"/>
       <c r="J540" t="inlineStr"/>
@@ -18702,7 +19028,7 @@
         <v>-74251.76802609002</v>
       </c>
       <c r="H541" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I541" t="inlineStr"/>
       <c r="J541" t="inlineStr"/>
@@ -18735,7 +19061,7 @@
         <v>-75692.69012609002</v>
       </c>
       <c r="H542" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I542" t="inlineStr"/>
       <c r="J542" t="inlineStr"/>
@@ -18768,7 +19094,7 @@
         <v>-76201.41062609002</v>
       </c>
       <c r="H543" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I543" t="inlineStr"/>
       <c r="J543" t="inlineStr"/>
@@ -18801,7 +19127,7 @@
         <v>-76201.41062609002</v>
       </c>
       <c r="H544" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I544" t="inlineStr"/>
       <c r="J544" t="inlineStr"/>
@@ -21771,7 +22097,7 @@
         <v>-86808.22108925002</v>
       </c>
       <c r="H634" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -21804,7 +22130,7 @@
         <v>-86808.22108925002</v>
       </c>
       <c r="H635" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -21870,7 +22196,7 @@
         <v>-86809.22108925002</v>
       </c>
       <c r="H637" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21903,7 +22229,7 @@
         <v>-86043.22278925001</v>
       </c>
       <c r="H638" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21936,7 +22262,7 @@
         <v>-85031.65318925001</v>
       </c>
       <c r="H639" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21969,7 +22295,7 @@
         <v>-85131.65318925001</v>
       </c>
       <c r="H640" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22002,7 +22328,7 @@
         <v>-85149.65318925001</v>
       </c>
       <c r="H641" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22035,7 +22361,7 @@
         <v>-85023.65318925001</v>
       </c>
       <c r="H642" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -22068,7 +22394,7 @@
         <v>-85179.89928925001</v>
       </c>
       <c r="H643" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -22101,7 +22427,7 @@
         <v>-85100.31972721001</v>
       </c>
       <c r="H644" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -22134,7 +22460,7 @@
         <v>-85200.31972721001</v>
       </c>
       <c r="H645" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -22167,7 +22493,7 @@
         <v>-85389.96762721</v>
       </c>
       <c r="H646" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25203,10 +25529,14 @@
         <v>-163009.5203257001</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
-      </c>
-      <c r="I738" t="inlineStr"/>
-      <c r="J738" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I738" t="n">
+        <v>654</v>
+      </c>
+      <c r="J738" t="n">
+        <v>654</v>
+      </c>
       <c r="K738" t="inlineStr"/>
       <c r="L738" t="n">
         <v>1</v>
@@ -25239,8 +25569,14 @@
         <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
-      <c r="J739" t="inlineStr"/>
-      <c r="K739" t="inlineStr"/>
+      <c r="J739" t="n">
+        <v>654</v>
+      </c>
+      <c r="K739" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L739" t="n">
         <v>1</v>
       </c>
@@ -25272,8 +25608,14 @@
         <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
-      <c r="J740" t="inlineStr"/>
-      <c r="K740" t="inlineStr"/>
+      <c r="J740" t="n">
+        <v>654</v>
+      </c>
+      <c r="K740" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L740" t="n">
         <v>1</v>
       </c>
@@ -26391,7 +26733,7 @@
         <v>-105808.9821439301</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -27095,6 +27437,6 @@
       <c r="M795" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PPT.xlsx
+++ b/BackTest/2019-10-27 BackTest PPT.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -4015,7 +4015,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-36503.06943773</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-35342.25653773001</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-40040.95433773</v>
       </c>
       <c r="H127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-41148.22093773</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44228.01823773</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-41999.07743773</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-41026.85213773001</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-41112.12893773001</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-41029.40633773</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-42317.23249520001</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-42747.26549520001</v>
       </c>
       <c r="H140" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-43667.8423952</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-43452.8423952</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-43471.8423952</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-43476.8423952</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-31436.0205952</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-33313.4477952</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -8371,14 +8371,10 @@
         <v>-70077.45529520002</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>622</v>
-      </c>
-      <c r="J242" t="n">
-        <v>622</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
+      <c r="J242" t="inlineStr"/>
       <c r="K242" t="inlineStr"/>
       <c r="L242" t="n">
         <v>1</v>
@@ -8408,19 +8404,11 @@
         <v>-70338.21139520002</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>622</v>
-      </c>
-      <c r="J243" t="n">
-        <v>622</v>
-      </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
       <c r="L243" t="n">
         <v>1</v>
       </c>
@@ -8449,19 +8437,11 @@
         <v>-70323.12509520003</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>620</v>
-      </c>
-      <c r="J244" t="n">
-        <v>622</v>
-      </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
       <c r="L244" t="n">
         <v>1</v>
       </c>
@@ -8490,19 +8470,11 @@
         <v>-70479.76839520002</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>628</v>
-      </c>
-      <c r="J245" t="n">
-        <v>622</v>
-      </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
       <c r="L245" t="n">
         <v>1</v>
       </c>
@@ -8531,19 +8503,11 @@
         <v>-70473.63199520002</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>622</v>
-      </c>
-      <c r="J246" t="n">
-        <v>622</v>
-      </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
       <c r="L246" t="n">
         <v>1</v>
       </c>
@@ -8572,19 +8536,11 @@
         <v>-73999.96159520002</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>630</v>
-      </c>
-      <c r="J247" t="n">
-        <v>622</v>
-      </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
       <c r="L247" t="n">
         <v>1</v>
       </c>
@@ -8613,19 +8569,11 @@
         <v>-73832.96159520002</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>623</v>
-      </c>
-      <c r="J248" t="n">
-        <v>622</v>
-      </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
       <c r="L248" t="n">
         <v>1</v>
       </c>
@@ -8654,19 +8602,11 @@
         <v>-75715.96159520002</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>624</v>
-      </c>
-      <c r="J249" t="n">
-        <v>622</v>
-      </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
       <c r="L249" t="n">
         <v>1</v>
       </c>
@@ -8695,19 +8635,11 @@
         <v>-75896.60949520001</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>622</v>
-      </c>
-      <c r="J250" t="n">
-        <v>622</v>
-      </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
       <c r="L250" t="n">
         <v>1</v>
       </c>
@@ -8736,19 +8668,11 @@
         <v>-76306.24959520002</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>621</v>
-      </c>
-      <c r="J251" t="n">
-        <v>622</v>
-      </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
       <c r="L251" t="n">
         <v>1</v>
       </c>
@@ -8777,19 +8701,11 @@
         <v>-76062.24959520002</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>620</v>
-      </c>
-      <c r="J252" t="n">
-        <v>622</v>
-      </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
       <c r="L252" t="n">
         <v>1</v>
       </c>
@@ -8818,19 +8734,11 @@
         <v>-74737.96279520002</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>622</v>
-      </c>
-      <c r="J253" t="n">
-        <v>622</v>
-      </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
       <c r="L253" t="n">
         <v>1</v>
       </c>
@@ -8859,19 +8767,11 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>625</v>
-      </c>
-      <c r="J254" t="n">
-        <v>622</v>
-      </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
       <c r="L254" t="n">
         <v>1</v>
       </c>
@@ -8900,19 +8800,11 @@
         <v>-74320.87189520002</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>627</v>
-      </c>
-      <c r="J255" t="n">
-        <v>622</v>
-      </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
       <c r="L255" t="n">
         <v>1</v>
       </c>
@@ -8941,19 +8833,11 @@
         <v>-73039.01839520002</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>627</v>
-      </c>
-      <c r="J256" t="n">
-        <v>622</v>
-      </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
       <c r="L256" t="n">
         <v>1</v>
       </c>
@@ -8982,19 +8866,11 @@
         <v>-71920.01849520003</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>628</v>
-      </c>
-      <c r="J257" t="n">
-        <v>622</v>
-      </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
       <c r="L257" t="n">
         <v>1</v>
       </c>
@@ -9023,19 +8899,11 @@
         <v>-70293.01849520003</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>629</v>
-      </c>
-      <c r="J258" t="n">
-        <v>622</v>
-      </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
       <c r="L258" t="n">
         <v>1</v>
       </c>
@@ -9064,19 +8932,11 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>632</v>
-      </c>
-      <c r="J259" t="n">
-        <v>622</v>
-      </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
       <c r="L259" t="n">
         <v>1</v>
       </c>
@@ -9105,19 +8965,11 @@
         <v>-70196.92949520002</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>633</v>
-      </c>
-      <c r="J260" t="n">
-        <v>622</v>
-      </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
       <c r="L260" t="n">
         <v>1</v>
       </c>
@@ -9146,19 +8998,11 @@
         <v>-68448.14499520003</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>633</v>
-      </c>
-      <c r="J261" t="n">
-        <v>622</v>
-      </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
       <c r="L261" t="n">
         <v>1</v>
       </c>
@@ -9187,19 +9031,11 @@
         <v>-67124.95039520002</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>636</v>
-      </c>
-      <c r="J262" t="n">
-        <v>622</v>
-      </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
       <c r="L262" t="n">
         <v>1</v>
       </c>
@@ -9228,19 +9064,11 @@
         <v>-67124.95039520002</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>637</v>
-      </c>
-      <c r="J263" t="n">
-        <v>622</v>
-      </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
       <c r="L263" t="n">
         <v>1</v>
       </c>
@@ -9269,19 +9097,11 @@
         <v>-67486.63269520002</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>637</v>
-      </c>
-      <c r="J264" t="n">
-        <v>622</v>
-      </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
       <c r="L264" t="n">
         <v>1</v>
       </c>
@@ -9310,19 +9130,11 @@
         <v>-61214.81489520003</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>636</v>
-      </c>
-      <c r="J265" t="n">
-        <v>622</v>
-      </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
       <c r="L265" t="n">
         <v>1</v>
       </c>
@@ -9351,19 +9163,11 @@
         <v>-64634.99209520002</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>638</v>
-      </c>
-      <c r="J266" t="n">
-        <v>622</v>
-      </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
       <c r="L266" t="n">
         <v>1</v>
       </c>
@@ -9392,19 +9196,11 @@
         <v>-64634.99209520002</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>637</v>
-      </c>
-      <c r="J267" t="n">
-        <v>622</v>
-      </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
       <c r="L267" t="n">
         <v>1</v>
       </c>
@@ -9433,19 +9229,11 @@
         <v>-65496.30229520002</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>637</v>
-      </c>
-      <c r="J268" t="n">
-        <v>622</v>
-      </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
       <c r="L268" t="n">
         <v>1</v>
       </c>
@@ -9474,19 +9262,11 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>636</v>
-      </c>
-      <c r="J269" t="n">
-        <v>622</v>
-      </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
       <c r="L269" t="n">
         <v>1</v>
       </c>
@@ -9515,19 +9295,11 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>637</v>
-      </c>
-      <c r="J270" t="n">
-        <v>622</v>
-      </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
       <c r="L270" t="n">
         <v>1</v>
       </c>
@@ -9556,19 +9328,11 @@
         <v>-64804.67609520003</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>637</v>
-      </c>
-      <c r="J271" t="n">
-        <v>622</v>
-      </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
       <c r="L271" t="n">
         <v>1</v>
       </c>
@@ -9597,19 +9361,11 @@
         <v>-64206.00839520003</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>637</v>
-      </c>
-      <c r="J272" t="n">
-        <v>622</v>
-      </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
       <c r="L272" t="n">
         <v>1</v>
       </c>
@@ -9638,19 +9394,11 @@
         <v>-64206.00839520003</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>638</v>
-      </c>
-      <c r="J273" t="n">
-        <v>622</v>
-      </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
       <c r="L273" t="n">
         <v>1</v>
       </c>
@@ -9679,19 +9427,11 @@
         <v>-62374.55289520003</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>638</v>
-      </c>
-      <c r="J274" t="n">
-        <v>622</v>
-      </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
       <c r="L274" t="n">
         <v>1</v>
       </c>
@@ -9720,19 +9460,11 @@
         <v>-64024.42479520003</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>639</v>
-      </c>
-      <c r="J275" t="n">
-        <v>622</v>
-      </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
       <c r="L275" t="n">
         <v>1</v>
       </c>
@@ -9761,19 +9493,11 @@
         <v>-63986.57799520003</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>637</v>
-      </c>
-      <c r="J276" t="n">
-        <v>622</v>
-      </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
       <c r="L276" t="n">
         <v>1</v>
       </c>
@@ -9802,19 +9526,11 @@
         <v>-62354.69139520003</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>638</v>
-      </c>
-      <c r="J277" t="n">
-        <v>622</v>
-      </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
       <c r="L277" t="n">
         <v>1</v>
       </c>
@@ -9843,19 +9559,11 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>644</v>
-      </c>
-      <c r="J278" t="n">
-        <v>622</v>
-      </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
       <c r="L278" t="n">
         <v>1</v>
       </c>
@@ -9884,19 +9592,11 @@
         <v>-67678.69139520003</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>638</v>
-      </c>
-      <c r="J279" t="n">
-        <v>622</v>
-      </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
       <c r="L279" t="n">
         <v>1</v>
       </c>
@@ -9928,14 +9628,8 @@
         <v>0</v>
       </c>
       <c r="I280" t="inlineStr"/>
-      <c r="J280" t="n">
-        <v>622</v>
-      </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
       <c r="L280" t="n">
         <v>1</v>
       </c>
@@ -9967,14 +9661,8 @@
         <v>0</v>
       </c>
       <c r="I281" t="inlineStr"/>
-      <c r="J281" t="n">
-        <v>622</v>
-      </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
       <c r="L281" t="n">
         <v>1</v>
       </c>
@@ -10003,19 +9691,11 @@
         <v>-59595.32350197003</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>638</v>
-      </c>
-      <c r="J282" t="n">
-        <v>622</v>
-      </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
       <c r="L282" t="n">
         <v>1</v>
       </c>
@@ -10047,14 +9727,8 @@
         <v>0</v>
       </c>
       <c r="I283" t="inlineStr"/>
-      <c r="J283" t="n">
-        <v>622</v>
-      </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
       <c r="L283" t="n">
         <v>1</v>
       </c>
@@ -10086,14 +9760,8 @@
         <v>0</v>
       </c>
       <c r="I284" t="inlineStr"/>
-      <c r="J284" t="n">
-        <v>622</v>
-      </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
       <c r="L284" t="n">
         <v>1</v>
       </c>
@@ -10125,14 +9793,8 @@
         <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
-      <c r="J285" t="n">
-        <v>622</v>
-      </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
       <c r="L285" t="n">
         <v>1</v>
       </c>
@@ -10164,14 +9826,8 @@
         <v>0</v>
       </c>
       <c r="I286" t="inlineStr"/>
-      <c r="J286" t="n">
-        <v>622</v>
-      </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
       <c r="L286" t="n">
         <v>1</v>
       </c>
@@ -10200,17 +9856,11 @@
         <v>-60270.30510197004</v>
       </c>
       <c r="H287" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I287" t="inlineStr"/>
-      <c r="J287" t="n">
-        <v>622</v>
-      </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
       <c r="L287" t="n">
         <v>1</v>
       </c>
@@ -10239,17 +9889,11 @@
         <v>-65564.45440197004</v>
       </c>
       <c r="H288" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I288" t="inlineStr"/>
-      <c r="J288" t="n">
-        <v>622</v>
-      </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
       <c r="L288" t="n">
         <v>1</v>
       </c>
@@ -10278,17 +9922,11 @@
         <v>-65562.89270197003</v>
       </c>
       <c r="H289" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I289" t="inlineStr"/>
-      <c r="J289" t="n">
-        <v>622</v>
-      </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
       <c r="L289" t="n">
         <v>1</v>
       </c>
@@ -10317,17 +9955,11 @@
         <v>-65577.89270197003</v>
       </c>
       <c r="H290" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I290" t="inlineStr"/>
-      <c r="J290" t="n">
-        <v>622</v>
-      </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
       <c r="L290" t="n">
         <v>1</v>
       </c>
@@ -10356,17 +9988,11 @@
         <v>-68563.32395049004</v>
       </c>
       <c r="H291" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I291" t="inlineStr"/>
-      <c r="J291" t="n">
-        <v>622</v>
-      </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
       <c r="L291" t="n">
         <v>1</v>
       </c>
@@ -10395,17 +10021,11 @@
         <v>-72377.56495049004</v>
       </c>
       <c r="H292" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I292" t="inlineStr"/>
-      <c r="J292" t="n">
-        <v>622</v>
-      </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
       <c r="L292" t="n">
         <v>1</v>
       </c>
@@ -10434,17 +10054,11 @@
         <v>-72338.59205049004</v>
       </c>
       <c r="H293" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I293" t="inlineStr"/>
-      <c r="J293" t="n">
-        <v>622</v>
-      </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
       <c r="L293" t="n">
         <v>1</v>
       </c>
@@ -10473,17 +10087,11 @@
         <v>-73429.59195049004</v>
       </c>
       <c r="H294" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I294" t="inlineStr"/>
-      <c r="J294" t="n">
-        <v>622</v>
-      </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
       <c r="L294" t="n">
         <v>1</v>
       </c>
@@ -10515,14 +10123,8 @@
         <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
-      <c r="J295" t="n">
-        <v>622</v>
-      </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
       <c r="L295" t="n">
         <v>1</v>
       </c>
@@ -10551,17 +10153,11 @@
         <v>-72643.45245049003</v>
       </c>
       <c r="H296" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I296" t="inlineStr"/>
-      <c r="J296" t="n">
-        <v>622</v>
-      </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
       <c r="L296" t="n">
         <v>1</v>
       </c>
@@ -10593,14 +10189,8 @@
         <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
-      <c r="J297" t="n">
-        <v>622</v>
-      </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
       <c r="L297" t="n">
         <v>1</v>
       </c>
@@ -10632,14 +10222,8 @@
         <v>0</v>
       </c>
       <c r="I298" t="inlineStr"/>
-      <c r="J298" t="n">
-        <v>622</v>
-      </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
       <c r="L298" t="n">
         <v>1</v>
       </c>
@@ -10671,14 +10255,8 @@
         <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
-      <c r="J299" t="n">
-        <v>622</v>
-      </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
       <c r="L299" t="n">
         <v>1</v>
       </c>
@@ -10710,14 +10288,8 @@
         <v>0</v>
       </c>
       <c r="I300" t="inlineStr"/>
-      <c r="J300" t="n">
-        <v>622</v>
-      </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
       <c r="L300" t="n">
         <v>1</v>
       </c>
@@ -10749,14 +10321,8 @@
         <v>0</v>
       </c>
       <c r="I301" t="inlineStr"/>
-      <c r="J301" t="n">
-        <v>622</v>
-      </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
       <c r="L301" t="n">
         <v>1</v>
       </c>
@@ -10788,14 +10354,8 @@
         <v>0</v>
       </c>
       <c r="I302" t="inlineStr"/>
-      <c r="J302" t="n">
-        <v>622</v>
-      </c>
-      <c r="K302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
       <c r="L302" t="n">
         <v>1</v>
       </c>
@@ -10827,14 +10387,8 @@
         <v>0</v>
       </c>
       <c r="I303" t="inlineStr"/>
-      <c r="J303" t="n">
-        <v>622</v>
-      </c>
-      <c r="K303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
       <c r="L303" t="n">
         <v>1</v>
       </c>
@@ -10866,14 +10420,8 @@
         <v>0</v>
       </c>
       <c r="I304" t="inlineStr"/>
-      <c r="J304" t="n">
-        <v>622</v>
-      </c>
-      <c r="K304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
       <c r="L304" t="n">
         <v>1</v>
       </c>
@@ -10905,14 +10453,8 @@
         <v>0</v>
       </c>
       <c r="I305" t="inlineStr"/>
-      <c r="J305" t="n">
-        <v>622</v>
-      </c>
-      <c r="K305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
       <c r="L305" t="n">
         <v>1</v>
       </c>
@@ -10944,14 +10486,8 @@
         <v>0</v>
       </c>
       <c r="I306" t="inlineStr"/>
-      <c r="J306" t="n">
-        <v>622</v>
-      </c>
-      <c r="K306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
       <c r="L306" t="n">
         <v>1</v>
       </c>
@@ -10983,14 +10519,8 @@
         <v>0</v>
       </c>
       <c r="I307" t="inlineStr"/>
-      <c r="J307" t="n">
-        <v>622</v>
-      </c>
-      <c r="K307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
       <c r="L307" t="n">
         <v>1</v>
       </c>
@@ -11022,14 +10552,8 @@
         <v>0</v>
       </c>
       <c r="I308" t="inlineStr"/>
-      <c r="J308" t="n">
-        <v>622</v>
-      </c>
-      <c r="K308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
       <c r="L308" t="n">
         <v>1</v>
       </c>
@@ -11061,14 +10585,8 @@
         <v>0</v>
       </c>
       <c r="I309" t="inlineStr"/>
-      <c r="J309" t="n">
-        <v>622</v>
-      </c>
-      <c r="K309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
       <c r="L309" t="n">
         <v>1</v>
       </c>
@@ -11100,14 +10618,8 @@
         <v>0</v>
       </c>
       <c r="I310" t="inlineStr"/>
-      <c r="J310" t="n">
-        <v>622</v>
-      </c>
-      <c r="K310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
       <c r="L310" t="n">
         <v>1</v>
       </c>
@@ -11139,14 +10651,8 @@
         <v>0</v>
       </c>
       <c r="I311" t="inlineStr"/>
-      <c r="J311" t="n">
-        <v>622</v>
-      </c>
-      <c r="K311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
       <c r="L311" t="n">
         <v>1</v>
       </c>
@@ -11178,14 +10684,8 @@
         <v>0</v>
       </c>
       <c r="I312" t="inlineStr"/>
-      <c r="J312" t="n">
-        <v>622</v>
-      </c>
-      <c r="K312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
       <c r="L312" t="n">
         <v>1</v>
       </c>
@@ -11217,14 +10717,8 @@
         <v>0</v>
       </c>
       <c r="I313" t="inlineStr"/>
-      <c r="J313" t="n">
-        <v>622</v>
-      </c>
-      <c r="K313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
       <c r="L313" t="n">
         <v>1</v>
       </c>
@@ -11256,14 +10750,8 @@
         <v>0</v>
       </c>
       <c r="I314" t="inlineStr"/>
-      <c r="J314" t="n">
-        <v>622</v>
-      </c>
-      <c r="K314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
       <c r="L314" t="n">
         <v>1</v>
       </c>
@@ -11295,14 +10783,8 @@
         <v>0</v>
       </c>
       <c r="I315" t="inlineStr"/>
-      <c r="J315" t="n">
-        <v>622</v>
-      </c>
-      <c r="K315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
       <c r="L315" t="n">
         <v>1</v>
       </c>
@@ -11334,14 +10816,8 @@
         <v>0</v>
       </c>
       <c r="I316" t="inlineStr"/>
-      <c r="J316" t="n">
-        <v>622</v>
-      </c>
-      <c r="K316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
       <c r="L316" t="n">
         <v>1</v>
       </c>
@@ -11370,17 +10846,11 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H317" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I317" t="inlineStr"/>
-      <c r="J317" t="n">
-        <v>622</v>
-      </c>
-      <c r="K317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J317" t="inlineStr"/>
+      <c r="K317" t="inlineStr"/>
       <c r="L317" t="n">
         <v>1</v>
       </c>
@@ -11409,17 +10879,11 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H318" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I318" t="inlineStr"/>
-      <c r="J318" t="n">
-        <v>622</v>
-      </c>
-      <c r="K318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J318" t="inlineStr"/>
+      <c r="K318" t="inlineStr"/>
       <c r="L318" t="n">
         <v>1</v>
       </c>
@@ -11451,14 +10915,8 @@
         <v>0</v>
       </c>
       <c r="I319" t="inlineStr"/>
-      <c r="J319" t="n">
-        <v>622</v>
-      </c>
-      <c r="K319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J319" t="inlineStr"/>
+      <c r="K319" t="inlineStr"/>
       <c r="L319" t="n">
         <v>1</v>
       </c>
@@ -11487,17 +10945,11 @@
         <v>-73223.37055049003</v>
       </c>
       <c r="H320" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I320" t="inlineStr"/>
-      <c r="J320" t="n">
-        <v>622</v>
-      </c>
-      <c r="K320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J320" t="inlineStr"/>
+      <c r="K320" t="inlineStr"/>
       <c r="L320" t="n">
         <v>1</v>
       </c>
@@ -11529,14 +10981,8 @@
         <v>0</v>
       </c>
       <c r="I321" t="inlineStr"/>
-      <c r="J321" t="n">
-        <v>622</v>
-      </c>
-      <c r="K321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J321" t="inlineStr"/>
+      <c r="K321" t="inlineStr"/>
       <c r="L321" t="n">
         <v>1</v>
       </c>
@@ -11568,14 +11014,8 @@
         <v>0</v>
       </c>
       <c r="I322" t="inlineStr"/>
-      <c r="J322" t="n">
-        <v>622</v>
-      </c>
-      <c r="K322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J322" t="inlineStr"/>
+      <c r="K322" t="inlineStr"/>
       <c r="L322" t="n">
         <v>1</v>
       </c>
@@ -11607,14 +11047,8 @@
         <v>0</v>
       </c>
       <c r="I323" t="inlineStr"/>
-      <c r="J323" t="n">
-        <v>622</v>
-      </c>
-      <c r="K323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J323" t="inlineStr"/>
+      <c r="K323" t="inlineStr"/>
       <c r="L323" t="n">
         <v>1</v>
       </c>
@@ -11643,17 +11077,11 @@
         <v>-71976.10735049003</v>
       </c>
       <c r="H324" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I324" t="inlineStr"/>
-      <c r="J324" t="n">
-        <v>622</v>
-      </c>
-      <c r="K324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J324" t="inlineStr"/>
+      <c r="K324" t="inlineStr"/>
       <c r="L324" t="n">
         <v>1</v>
       </c>
@@ -11682,17 +11110,11 @@
         <v>-71888.77405049003</v>
       </c>
       <c r="H325" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I325" t="inlineStr"/>
-      <c r="J325" t="n">
-        <v>622</v>
-      </c>
-      <c r="K325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J325" t="inlineStr"/>
+      <c r="K325" t="inlineStr"/>
       <c r="L325" t="n">
         <v>1</v>
       </c>
@@ -11721,17 +11143,11 @@
         <v>-75503.27935049003</v>
       </c>
       <c r="H326" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I326" t="inlineStr"/>
-      <c r="J326" t="n">
-        <v>622</v>
-      </c>
-      <c r="K326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J326" t="inlineStr"/>
+      <c r="K326" t="inlineStr"/>
       <c r="L326" t="n">
         <v>1</v>
       </c>
@@ -11760,17 +11176,11 @@
         <v>-61366.58215049003</v>
       </c>
       <c r="H327" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I327" t="inlineStr"/>
-      <c r="J327" t="n">
-        <v>622</v>
-      </c>
-      <c r="K327" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J327" t="inlineStr"/>
+      <c r="K327" t="inlineStr"/>
       <c r="L327" t="n">
         <v>1</v>
       </c>
@@ -11799,17 +11209,11 @@
         <v>-64997.10670197003</v>
       </c>
       <c r="H328" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I328" t="inlineStr"/>
-      <c r="J328" t="n">
-        <v>622</v>
-      </c>
-      <c r="K328" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J328" t="inlineStr"/>
+      <c r="K328" t="inlineStr"/>
       <c r="L328" t="n">
         <v>1</v>
       </c>
@@ -11838,17 +11242,11 @@
         <v>-60190.80210197002</v>
       </c>
       <c r="H329" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I329" t="inlineStr"/>
-      <c r="J329" t="n">
-        <v>622</v>
-      </c>
-      <c r="K329" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J329" t="inlineStr"/>
+      <c r="K329" t="inlineStr"/>
       <c r="L329" t="n">
         <v>1</v>
       </c>
@@ -11880,14 +11278,8 @@
         <v>0</v>
       </c>
       <c r="I330" t="inlineStr"/>
-      <c r="J330" t="n">
-        <v>622</v>
-      </c>
-      <c r="K330" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J330" t="inlineStr"/>
+      <c r="K330" t="inlineStr"/>
       <c r="L330" t="n">
         <v>1</v>
       </c>
@@ -11919,14 +11311,8 @@
         <v>0</v>
       </c>
       <c r="I331" t="inlineStr"/>
-      <c r="J331" t="n">
-        <v>622</v>
-      </c>
-      <c r="K331" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J331" t="inlineStr"/>
+      <c r="K331" t="inlineStr"/>
       <c r="L331" t="n">
         <v>1</v>
       </c>
@@ -11958,14 +11344,8 @@
         <v>0</v>
       </c>
       <c r="I332" t="inlineStr"/>
-      <c r="J332" t="n">
-        <v>622</v>
-      </c>
-      <c r="K332" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J332" t="inlineStr"/>
+      <c r="K332" t="inlineStr"/>
       <c r="L332" t="n">
         <v>1</v>
       </c>
@@ -11997,14 +11377,8 @@
         <v>0</v>
       </c>
       <c r="I333" t="inlineStr"/>
-      <c r="J333" t="n">
-        <v>622</v>
-      </c>
-      <c r="K333" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J333" t="inlineStr"/>
+      <c r="K333" t="inlineStr"/>
       <c r="L333" t="n">
         <v>1</v>
       </c>
@@ -12036,14 +11410,8 @@
         <v>0</v>
       </c>
       <c r="I334" t="inlineStr"/>
-      <c r="J334" t="n">
-        <v>622</v>
-      </c>
-      <c r="K334" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J334" t="inlineStr"/>
+      <c r="K334" t="inlineStr"/>
       <c r="L334" t="n">
         <v>1</v>
       </c>
@@ -12072,17 +11440,11 @@
         <v>-26369.16914470003</v>
       </c>
       <c r="H335" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I335" t="inlineStr"/>
-      <c r="J335" t="n">
-        <v>622</v>
-      </c>
-      <c r="K335" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J335" t="inlineStr"/>
+      <c r="K335" t="inlineStr"/>
       <c r="L335" t="n">
         <v>1</v>
       </c>
@@ -12111,17 +11473,11 @@
         <v>-17966.15244062003</v>
       </c>
       <c r="H336" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I336" t="inlineStr"/>
-      <c r="J336" t="n">
-        <v>622</v>
-      </c>
-      <c r="K336" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J336" t="inlineStr"/>
+      <c r="K336" t="inlineStr"/>
       <c r="L336" t="n">
         <v>1</v>
       </c>
@@ -12150,17 +11506,11 @@
         <v>-3300.142373050026</v>
       </c>
       <c r="H337" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I337" t="inlineStr"/>
-      <c r="J337" t="n">
-        <v>622</v>
-      </c>
-      <c r="K337" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J337" t="inlineStr"/>
+      <c r="K337" t="inlineStr"/>
       <c r="L337" t="n">
         <v>1</v>
       </c>
@@ -12189,17 +11539,11 @@
         <v>-10280.73127305003</v>
       </c>
       <c r="H338" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I338" t="inlineStr"/>
-      <c r="J338" t="n">
-        <v>622</v>
-      </c>
-      <c r="K338" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J338" t="inlineStr"/>
+      <c r="K338" t="inlineStr"/>
       <c r="L338" t="n">
         <v>1</v>
       </c>
@@ -12228,17 +11572,11 @@
         <v>-10379.30297305003</v>
       </c>
       <c r="H339" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I339" t="inlineStr"/>
-      <c r="J339" t="n">
-        <v>622</v>
-      </c>
-      <c r="K339" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J339" t="inlineStr"/>
+      <c r="K339" t="inlineStr"/>
       <c r="L339" t="n">
         <v>1</v>
       </c>
@@ -12267,17 +11605,11 @@
         <v>-14888.10207305003</v>
       </c>
       <c r="H340" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I340" t="inlineStr"/>
-      <c r="J340" t="n">
-        <v>622</v>
-      </c>
-      <c r="K340" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J340" t="inlineStr"/>
+      <c r="K340" t="inlineStr"/>
       <c r="L340" t="n">
         <v>1</v>
       </c>
@@ -12306,17 +11638,11 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H341" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I341" t="inlineStr"/>
-      <c r="J341" t="n">
-        <v>622</v>
-      </c>
-      <c r="K341" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J341" t="inlineStr"/>
+      <c r="K341" t="inlineStr"/>
       <c r="L341" t="n">
         <v>1</v>
       </c>
@@ -12345,17 +11671,11 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H342" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I342" t="inlineStr"/>
-      <c r="J342" t="n">
-        <v>622</v>
-      </c>
-      <c r="K342" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J342" t="inlineStr"/>
+      <c r="K342" t="inlineStr"/>
       <c r="L342" t="n">
         <v>1</v>
       </c>
@@ -12384,17 +11704,11 @@
         <v>-10141.41837305003</v>
       </c>
       <c r="H343" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I343" t="inlineStr"/>
-      <c r="J343" t="n">
-        <v>622</v>
-      </c>
-      <c r="K343" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J343" t="inlineStr"/>
+      <c r="K343" t="inlineStr"/>
       <c r="L343" t="n">
         <v>1</v>
       </c>
@@ -12423,17 +11737,11 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H344" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I344" t="inlineStr"/>
-      <c r="J344" t="n">
-        <v>622</v>
-      </c>
-      <c r="K344" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J344" t="inlineStr"/>
+      <c r="K344" t="inlineStr"/>
       <c r="L344" t="n">
         <v>1</v>
       </c>
@@ -12462,17 +11770,11 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H345" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I345" t="inlineStr"/>
-      <c r="J345" t="n">
-        <v>622</v>
-      </c>
-      <c r="K345" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J345" t="inlineStr"/>
+      <c r="K345" t="inlineStr"/>
       <c r="L345" t="n">
         <v>1</v>
       </c>
@@ -12504,14 +11806,8 @@
         <v>0</v>
       </c>
       <c r="I346" t="inlineStr"/>
-      <c r="J346" t="n">
-        <v>622</v>
-      </c>
-      <c r="K346" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J346" t="inlineStr"/>
+      <c r="K346" t="inlineStr"/>
       <c r="L346" t="n">
         <v>1</v>
       </c>
@@ -12543,14 +11839,8 @@
         <v>0</v>
       </c>
       <c r="I347" t="inlineStr"/>
-      <c r="J347" t="n">
-        <v>622</v>
-      </c>
-      <c r="K347" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J347" t="inlineStr"/>
+      <c r="K347" t="inlineStr"/>
       <c r="L347" t="n">
         <v>1</v>
       </c>
@@ -12582,14 +11872,8 @@
         <v>0</v>
       </c>
       <c r="I348" t="inlineStr"/>
-      <c r="J348" t="n">
-        <v>622</v>
-      </c>
-      <c r="K348" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J348" t="inlineStr"/>
+      <c r="K348" t="inlineStr"/>
       <c r="L348" t="n">
         <v>1</v>
       </c>
@@ -12621,14 +11905,8 @@
         <v>0</v>
       </c>
       <c r="I349" t="inlineStr"/>
-      <c r="J349" t="n">
-        <v>622</v>
-      </c>
-      <c r="K349" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J349" t="inlineStr"/>
+      <c r="K349" t="inlineStr"/>
       <c r="L349" t="n">
         <v>1</v>
       </c>
@@ -12660,14 +11938,8 @@
         <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
-      <c r="J350" t="n">
-        <v>622</v>
-      </c>
-      <c r="K350" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J350" t="inlineStr"/>
+      <c r="K350" t="inlineStr"/>
       <c r="L350" t="n">
         <v>1</v>
       </c>
@@ -12699,14 +11971,8 @@
         <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
-      <c r="J351" t="n">
-        <v>622</v>
-      </c>
-      <c r="K351" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J351" t="inlineStr"/>
+      <c r="K351" t="inlineStr"/>
       <c r="L351" t="n">
         <v>1</v>
       </c>
@@ -12738,14 +12004,8 @@
         <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
-      <c r="J352" t="n">
-        <v>622</v>
-      </c>
-      <c r="K352" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J352" t="inlineStr"/>
+      <c r="K352" t="inlineStr"/>
       <c r="L352" t="n">
         <v>1</v>
       </c>
@@ -12777,14 +12037,8 @@
         <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
-      <c r="J353" t="n">
-        <v>622</v>
-      </c>
-      <c r="K353" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J353" t="inlineStr"/>
+      <c r="K353" t="inlineStr"/>
       <c r="L353" t="n">
         <v>1</v>
       </c>
@@ -12816,14 +12070,8 @@
         <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
-      <c r="J354" t="n">
-        <v>622</v>
-      </c>
-      <c r="K354" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J354" t="inlineStr"/>
+      <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
       </c>
@@ -12855,14 +12103,8 @@
         <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
-      <c r="J355" t="n">
-        <v>622</v>
-      </c>
-      <c r="K355" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
       <c r="L355" t="n">
         <v>1</v>
       </c>
@@ -12894,14 +12136,8 @@
         <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>622</v>
-      </c>
-      <c r="K356" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
       <c r="L356" t="n">
         <v>1</v>
       </c>
@@ -12933,14 +12169,8 @@
         <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>622</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
       <c r="L357" t="n">
         <v>1</v>
       </c>
@@ -12972,14 +12202,8 @@
         <v>0</v>
       </c>
       <c r="I358" t="inlineStr"/>
-      <c r="J358" t="n">
-        <v>622</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -13011,14 +12235,8 @@
         <v>0</v>
       </c>
       <c r="I359" t="inlineStr"/>
-      <c r="J359" t="n">
-        <v>622</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -13047,23 +12265,15 @@
         <v>1585.971826949974</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I360" t="inlineStr"/>
-      <c r="J360" t="n">
-        <v>622</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J360" t="inlineStr"/>
+      <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
-        <v>1.176672025723473</v>
-      </c>
-      <c r="M360" t="n">
-        <v>1.181372549019608</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
@@ -13088,7 +12298,7 @@
         <v>-2996.394873050026</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -13121,7 +12331,7 @@
         <v>1563.159826949974</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -13154,7 +12364,7 @@
         <v>2831.758291279973</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -13187,7 +12397,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -13253,7 +12463,7 @@
         <v>5259.653991279974</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -13286,7 +12496,7 @@
         <v>2543.520491279974</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -13319,7 +12529,7 @@
         <v>2251.903864259973</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -13847,7 +13057,7 @@
         <v>-3776.619027230026</v>
       </c>
       <c r="H384" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
@@ -13880,7 +13090,7 @@
         <v>-5023.619027230026</v>
       </c>
       <c r="H385" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="inlineStr"/>
@@ -13913,7 +13123,7 @@
         <v>-4853.432527230027</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13946,7 +13156,7 @@
         <v>-4853.432527230027</v>
       </c>
       <c r="H387" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13979,7 +13189,7 @@
         <v>-5763.276927230027</v>
       </c>
       <c r="H388" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -14012,7 +13222,7 @@
         <v>-5499.465814050027</v>
       </c>
       <c r="H389" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -14078,7 +13288,7 @@
         <v>-7486.730714050027</v>
       </c>
       <c r="H391" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
       <c r="J391" t="inlineStr"/>
@@ -14111,7 +13321,7 @@
         <v>-10508.56601405003</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
       <c r="J392" t="inlineStr"/>
@@ -14144,7 +13354,7 @@
         <v>-3937.361914050028</v>
       </c>
       <c r="H393" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
       <c r="J393" t="inlineStr"/>
@@ -14177,7 +13387,7 @@
         <v>-6322.010200870028</v>
       </c>
       <c r="H394" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="inlineStr"/>
@@ -14210,7 +13420,7 @@
         <v>-6140.604000870027</v>
       </c>
       <c r="H395" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="inlineStr"/>
@@ -14243,7 +13453,7 @@
         <v>-3958.074200870028</v>
       </c>
       <c r="H396" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -14309,7 +13519,7 @@
         <v>-5518.264400870028</v>
       </c>
       <c r="H398" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -14342,7 +13552,7 @@
         <v>-5112.917800870028</v>
       </c>
       <c r="H399" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="inlineStr"/>
@@ -14870,7 +14080,7 @@
         <v>-12149.33310087003</v>
       </c>
       <c r="H415" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="inlineStr"/>
@@ -14936,7 +14146,7 @@
         <v>-12231.05430087003</v>
       </c>
       <c r="H417" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="inlineStr"/>
@@ -15002,7 +14212,7 @@
         <v>-16140.41590087003</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -15035,7 +14245,7 @@
         <v>-17933.53990087003</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -15068,7 +14278,7 @@
         <v>-22047.12070087003</v>
       </c>
       <c r="H421" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="inlineStr"/>
@@ -15101,7 +14311,7 @@
         <v>-22047.12070087003</v>
       </c>
       <c r="H422" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="inlineStr"/>
@@ -15134,7 +14344,7 @@
         <v>-23404.96710087003</v>
       </c>
       <c r="H423" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="inlineStr"/>
@@ -15167,7 +14377,7 @@
         <v>-31174.76460087003</v>
       </c>
       <c r="H424" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="inlineStr"/>
@@ -15200,7 +14410,7 @@
         <v>-31087.64960087003</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
       <c r="J425" t="inlineStr"/>
@@ -15233,7 +14443,7 @@
         <v>-33974.53460087003</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
       <c r="J426" t="inlineStr"/>
@@ -15266,7 +14476,7 @@
         <v>-35246.58330087003</v>
       </c>
       <c r="H427" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="inlineStr"/>
@@ -15299,7 +14509,7 @@
         <v>-40048.46100087003</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
       <c r="J428" t="inlineStr"/>
@@ -15332,7 +14542,7 @@
         <v>-37069.92750087003</v>
       </c>
       <c r="H429" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="inlineStr"/>
@@ -15365,7 +14575,7 @@
         <v>-42614.10400087003</v>
       </c>
       <c r="H430" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="inlineStr"/>
@@ -15398,7 +14608,7 @@
         <v>-47311.48910087003</v>
       </c>
       <c r="H431" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="inlineStr"/>
@@ -15431,7 +14641,7 @@
         <v>-56855.80690087003</v>
       </c>
       <c r="H432" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="inlineStr"/>
@@ -15464,7 +14674,7 @@
         <v>-59081.80690087003</v>
       </c>
       <c r="H433" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="inlineStr"/>
@@ -15497,7 +14707,7 @@
         <v>-63306.45280087003</v>
       </c>
       <c r="H434" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="inlineStr"/>
@@ -15530,7 +14740,7 @@
         <v>-63306.45280087003</v>
       </c>
       <c r="H435" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="inlineStr"/>
@@ -15563,7 +14773,7 @@
         <v>-64581.45280087003</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
       <c r="J436" t="inlineStr"/>
@@ -15596,7 +14806,7 @@
         <v>-64581.45280087003</v>
       </c>
       <c r="H437" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="inlineStr"/>
@@ -15629,7 +14839,7 @@
         <v>-63807.46740087003</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
       <c r="J438" t="inlineStr"/>
@@ -15662,7 +14872,7 @@
         <v>-63807.46740087003</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
       <c r="J439" t="inlineStr"/>
@@ -15695,7 +14905,7 @@
         <v>-62530.76360087003</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
       <c r="J440" t="inlineStr"/>
@@ -15728,7 +14938,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
       <c r="J441" t="inlineStr"/>
@@ -15761,7 +14971,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
       <c r="J442" t="inlineStr"/>
@@ -15794,7 +15004,7 @@
         <v>-62232.76360087003</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
       <c r="J443" t="inlineStr"/>
@@ -15827,7 +15037,7 @@
         <v>-61104.41232609003</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
       <c r="J444" t="inlineStr"/>
@@ -22163,7 +21373,7 @@
         <v>-86807.22108925002</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -22196,7 +21406,7 @@
         <v>-86809.22108925002</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -22229,7 +21439,7 @@
         <v>-86043.22278925001</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -22262,7 +21472,7 @@
         <v>-85031.65318925001</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -22295,7 +21505,7 @@
         <v>-85131.65318925001</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -22328,7 +21538,7 @@
         <v>-85149.65318925001</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -22460,7 +21670,7 @@
         <v>-85200.31972721001</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24308,7 +23518,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -24341,7 +23551,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -24374,7 +23584,7 @@
         <v>-155261.1868257</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -24407,7 +23617,7 @@
         <v>-155676.7054257</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -24440,7 +23650,7 @@
         <v>-155675.7054257</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -24473,7 +23683,7 @@
         <v>-156697.3089257</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -24506,7 +23716,7 @@
         <v>-160243.4466257</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -24539,7 +23749,7 @@
         <v>-157133.2451257</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -24572,7 +23782,7 @@
         <v>-157490.9109257</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -24803,7 +24013,7 @@
         <v>-160307.7833257</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -24836,7 +24046,7 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -25265,10 +24475,14 @@
         <v>-165413.9384257</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
-      </c>
-      <c r="I730" t="inlineStr"/>
-      <c r="J730" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I730" t="n">
+        <v>665</v>
+      </c>
+      <c r="J730" t="n">
+        <v>665</v>
+      </c>
       <c r="K730" t="inlineStr"/>
       <c r="L730" t="n">
         <v>1</v>
@@ -25301,8 +24515,14 @@
         <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
-      <c r="J731" t="inlineStr"/>
-      <c r="K731" t="inlineStr"/>
+      <c r="J731" t="n">
+        <v>665</v>
+      </c>
+      <c r="K731" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L731" t="n">
         <v>1</v>
       </c>
@@ -25334,8 +24554,14 @@
         <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
-      <c r="J732" t="inlineStr"/>
-      <c r="K732" t="inlineStr"/>
+      <c r="J732" t="n">
+        <v>665</v>
+      </c>
+      <c r="K732" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L732" t="n">
         <v>1</v>
       </c>
@@ -25397,11 +24623,17 @@
         <v>-161987.2817257001</v>
       </c>
       <c r="H734" t="n">
-        <v>0</v>
-      </c>
-      <c r="I734" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I734" t="n">
+        <v>659</v>
+      </c>
       <c r="J734" t="inlineStr"/>
-      <c r="K734" t="inlineStr"/>
+      <c r="K734" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L734" t="n">
         <v>1</v>
       </c>
@@ -25430,11 +24662,17 @@
         <v>-162423.3317257001</v>
       </c>
       <c r="H735" t="n">
-        <v>0</v>
-      </c>
-      <c r="I735" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I735" t="n">
+        <v>664</v>
+      </c>
       <c r="J735" t="inlineStr"/>
-      <c r="K735" t="inlineStr"/>
+      <c r="K735" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L735" t="n">
         <v>1</v>
       </c>
@@ -25463,11 +24701,17 @@
         <v>-163247.4160257</v>
       </c>
       <c r="H736" t="n">
-        <v>0</v>
-      </c>
-      <c r="I736" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I736" t="n">
+        <v>660</v>
+      </c>
       <c r="J736" t="inlineStr"/>
-      <c r="K736" t="inlineStr"/>
+      <c r="K736" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L736" t="n">
         <v>1</v>
       </c>
@@ -25496,11 +24740,17 @@
         <v>-163247.4160257</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
-      </c>
-      <c r="I737" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I737" t="n">
+        <v>654</v>
+      </c>
       <c r="J737" t="inlineStr"/>
-      <c r="K737" t="inlineStr"/>
+      <c r="K737" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L737" t="n">
         <v>1</v>
       </c>
@@ -25534,10 +24784,12 @@
       <c r="I738" t="n">
         <v>654</v>
       </c>
-      <c r="J738" t="n">
-        <v>654</v>
-      </c>
-      <c r="K738" t="inlineStr"/>
+      <c r="J738" t="inlineStr"/>
+      <c r="K738" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L738" t="n">
         <v>1</v>
       </c>
@@ -25566,15 +24818,15 @@
         <v>-162597.9009257001</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
-      </c>
-      <c r="I739" t="inlineStr"/>
-      <c r="J739" t="n">
-        <v>654</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I739" t="n">
+        <v>662</v>
+      </c>
+      <c r="J739" t="inlineStr"/>
       <c r="K739" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L739" t="n">
@@ -25605,15 +24857,15 @@
         <v>-162597.9009257001</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
-      </c>
-      <c r="I740" t="inlineStr"/>
-      <c r="J740" t="n">
-        <v>654</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I740" t="n">
+        <v>663</v>
+      </c>
+      <c r="J740" t="inlineStr"/>
       <c r="K740" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L740" t="n">
@@ -25644,11 +24896,17 @@
         <v>-162597.9009257001</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
-      </c>
-      <c r="I741" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I741" t="n">
+        <v>663</v>
+      </c>
       <c r="J741" t="inlineStr"/>
-      <c r="K741" t="inlineStr"/>
+      <c r="K741" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L741" t="n">
         <v>1</v>
       </c>
@@ -25677,11 +24935,17 @@
         <v>-162597.9009257001</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
-      </c>
-      <c r="I742" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I742" t="n">
+        <v>663</v>
+      </c>
       <c r="J742" t="inlineStr"/>
-      <c r="K742" t="inlineStr"/>
+      <c r="K742" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L742" t="n">
         <v>1</v>
       </c>
@@ -25710,11 +24974,17 @@
         <v>-146061.1062257001</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
-      </c>
-      <c r="I743" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I743" t="n">
+        <v>663</v>
+      </c>
       <c r="J743" t="inlineStr"/>
-      <c r="K743" t="inlineStr"/>
+      <c r="K743" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L743" t="n">
         <v>1</v>
       </c>
@@ -25747,7 +25017,11 @@
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
-      <c r="K744" t="inlineStr"/>
+      <c r="K744" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L744" t="n">
         <v>1</v>
       </c>
@@ -25780,7 +25054,11 @@
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
-      <c r="K745" t="inlineStr"/>
+      <c r="K745" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L745" t="n">
         <v>1</v>
       </c>
@@ -25813,7 +25091,11 @@
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
-      <c r="K746" t="inlineStr"/>
+      <c r="K746" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L746" t="n">
         <v>1</v>
       </c>
@@ -25846,7 +25128,11 @@
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
-      <c r="K747" t="inlineStr"/>
+      <c r="K747" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L747" t="n">
         <v>1</v>
       </c>
@@ -25879,7 +25165,11 @@
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
-      <c r="K748" t="inlineStr"/>
+      <c r="K748" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L748" t="n">
         <v>1</v>
       </c>
@@ -25912,7 +25202,11 @@
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
-      <c r="K749" t="inlineStr"/>
+      <c r="K749" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L749" t="n">
         <v>1</v>
       </c>
@@ -25945,7 +25239,11 @@
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
-      <c r="K750" t="inlineStr"/>
+      <c r="K750" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L750" t="n">
         <v>1</v>
       </c>
@@ -25978,7 +25276,11 @@
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
-      <c r="K751" t="inlineStr"/>
+      <c r="K751" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L751" t="n">
         <v>1</v>
       </c>
@@ -26011,7 +25313,11 @@
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
-      <c r="K752" t="inlineStr"/>
+      <c r="K752" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L752" t="n">
         <v>1</v>
       </c>
@@ -26044,7 +25350,11 @@
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
-      <c r="K753" t="inlineStr"/>
+      <c r="K753" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L753" t="n">
         <v>1</v>
       </c>
@@ -26077,7 +25387,11 @@
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
-      <c r="K754" t="inlineStr"/>
+      <c r="K754" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L754" t="n">
         <v>1</v>
       </c>
@@ -26106,14 +25420,16 @@
         <v>-137941.0706257001</v>
       </c>
       <c r="H755" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
-      <c r="K755" t="inlineStr"/>
-      <c r="L755" t="n">
-        <v>1</v>
-      </c>
+      <c r="K755" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
+      <c r="L755" t="inlineStr"/>
       <c r="M755" t="inlineStr"/>
     </row>
     <row r="756">
@@ -26139,7 +25455,7 @@
         <v>-137931.0706257001</v>
       </c>
       <c r="H756" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -26172,7 +25488,7 @@
         <v>-138591.7475257001</v>
       </c>
       <c r="H757" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -26205,7 +25521,7 @@
         <v>-138246.7475257001</v>
       </c>
       <c r="H758" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -26238,7 +25554,7 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H759" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -26370,7 +25686,7 @@
         <v>-131196.6553575601</v>
       </c>
       <c r="H763" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -26403,7 +25719,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H764" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -26436,7 +25752,7 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H765" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -26469,7 +25785,7 @@
         <v>-134146.1913575601</v>
       </c>
       <c r="H766" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -26502,7 +25818,7 @@
         <v>-135598.7024575601</v>
       </c>
       <c r="H767" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -26535,7 +25851,7 @@
         <v>-130879.0267575601</v>
       </c>
       <c r="H768" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -26568,7 +25884,7 @@
         <v>-124638.2638575601</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -26865,7 +26181,7 @@
         <v>-111438.2641439301</v>
       </c>
       <c r="H778" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -26898,7 +26214,7 @@
         <v>-113090.2020439301</v>
       </c>
       <c r="H779" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -27096,7 +26412,7 @@
         <v>-113748.9102439301</v>
       </c>
       <c r="H785" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -27129,7 +26445,7 @@
         <v>-113258.1028439301</v>
       </c>
       <c r="H786" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -27162,7 +26478,7 @@
         <v>-114515.2670439301</v>
       </c>
       <c r="H787" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -27195,7 +26511,7 @@
         <v>-120955.9094439301</v>
       </c>
       <c r="H788" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -27228,7 +26544,7 @@
         <v>-122911.4612439301</v>
       </c>
       <c r="H789" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -27261,7 +26577,7 @@
         <v>-122821.3817439301</v>
       </c>
       <c r="H790" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -27294,7 +26610,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H791" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -27327,7 +26643,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H792" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -27360,7 +26676,7 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H793" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -27393,7 +26709,7 @@
         <v>-88224.28624393008</v>
       </c>
       <c r="H794" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -27426,7 +26742,7 @@
         <v>-89239.14944393009</v>
       </c>
       <c r="H795" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -27437,6 +26753,6 @@
       <c r="M795" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest PPT.xlsx
+++ b/BackTest/2019-10-27 BackTest PPT.xlsx
@@ -4015,7 +4015,7 @@
         <v>-33174.87873773</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-36503.06943773</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-35342.25653773001</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-40040.95433773</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-41148.22093773</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-44228.01823773</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-41999.07743773</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-41026.85213773001</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-41112.12893773001</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-41029.40633773</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-41908.5842952</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-42320.23249520001</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-42317.23249520001</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5005,7 +5005,7 @@
         <v>-42747.26549520001</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I140" t="inlineStr"/>
       <c r="J140" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-43667.8423952</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-43452.8423952</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-43471.8423952</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-43476.8423952</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-31436.0205952</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-33313.4477952</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-60270.30510197004</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-65564.45440197004</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-65562.89270197003</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-65577.89270197003</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-68563.32395049004</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-72377.56495049004</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-72338.59205049004</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-73429.59195049004</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-72643.45245049003</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10846,7 +10846,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I317" t="inlineStr"/>
       <c r="J317" t="inlineStr"/>
@@ -10879,7 +10879,7 @@
         <v>-74305.07915049003</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I318" t="inlineStr"/>
       <c r="J318" t="inlineStr"/>
@@ -10945,7 +10945,7 @@
         <v>-73223.37055049003</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I320" t="inlineStr"/>
       <c r="J320" t="inlineStr"/>
@@ -11077,7 +11077,7 @@
         <v>-71976.10735049003</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I324" t="inlineStr"/>
       <c r="J324" t="inlineStr"/>
@@ -11110,7 +11110,7 @@
         <v>-71888.77405049003</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I325" t="inlineStr"/>
       <c r="J325" t="inlineStr"/>
@@ -11143,7 +11143,7 @@
         <v>-75503.27935049003</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I326" t="inlineStr"/>
       <c r="J326" t="inlineStr"/>
@@ -11176,7 +11176,7 @@
         <v>-61366.58215049003</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I327" t="inlineStr"/>
       <c r="J327" t="inlineStr"/>
@@ -11209,7 +11209,7 @@
         <v>-64997.10670197003</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I328" t="inlineStr"/>
       <c r="J328" t="inlineStr"/>
@@ -11242,7 +11242,7 @@
         <v>-60190.80210197002</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I329" t="inlineStr"/>
       <c r="J329" t="inlineStr"/>
@@ -11440,7 +11440,7 @@
         <v>-26369.16914470003</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I335" t="inlineStr"/>
       <c r="J335" t="inlineStr"/>
@@ -11473,7 +11473,7 @@
         <v>-17966.15244062003</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I336" t="inlineStr"/>
       <c r="J336" t="inlineStr"/>
@@ -11506,7 +11506,7 @@
         <v>-3300.142373050026</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I337" t="inlineStr"/>
       <c r="J337" t="inlineStr"/>
@@ -11539,7 +11539,7 @@
         <v>-10280.73127305003</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I338" t="inlineStr"/>
       <c r="J338" t="inlineStr"/>
@@ -11572,7 +11572,7 @@
         <v>-10379.30297305003</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I339" t="inlineStr"/>
       <c r="J339" t="inlineStr"/>
@@ -11605,7 +11605,7 @@
         <v>-14888.10207305003</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I340" t="inlineStr"/>
       <c r="J340" t="inlineStr"/>
@@ -11638,7 +11638,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I341" t="inlineStr"/>
       <c r="J341" t="inlineStr"/>
@@ -11671,7 +11671,7 @@
         <v>-10206.97797305003</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I342" t="inlineStr"/>
       <c r="J342" t="inlineStr"/>
@@ -11704,7 +11704,7 @@
         <v>-10141.41837305003</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I343" t="inlineStr"/>
       <c r="J343" t="inlineStr"/>
@@ -11737,7 +11737,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I344" t="inlineStr"/>
       <c r="J344" t="inlineStr"/>
@@ -11770,7 +11770,7 @@
         <v>-3080.147173050026</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I345" t="inlineStr"/>
       <c r="J345" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>814.9384269499733</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,7 +12199,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I358" t="inlineStr"/>
       <c r="J358" t="inlineStr"/>
@@ -12232,7 +12232,7 @@
         <v>10604.08492694997</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I359" t="inlineStr"/>
       <c r="J359" t="inlineStr"/>
@@ -12265,7 +12265,7 @@
         <v>1585.971826949974</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I360" t="inlineStr"/>
       <c r="J360" t="inlineStr"/>
@@ -12298,7 +12298,7 @@
         <v>-2996.394873050026</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I361" t="inlineStr"/>
       <c r="J361" t="inlineStr"/>
@@ -12331,7 +12331,7 @@
         <v>1563.159826949974</v>
       </c>
       <c r="H362" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
@@ -12364,7 +12364,7 @@
         <v>2831.758291279973</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12397,7 +12397,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12430,7 +12430,7 @@
         <v>5264.462791279973</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12463,7 +12463,7 @@
         <v>5259.653991279974</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12496,7 +12496,7 @@
         <v>2543.520491279974</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
@@ -12529,7 +12529,7 @@
         <v>2251.903864259973</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
@@ -12562,7 +12562,7 @@
         <v>2745.865564259973</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
@@ -12595,7 +12595,7 @@
         <v>17337.09106425997</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
@@ -12628,7 +12628,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I371" t="inlineStr"/>
       <c r="J371" t="inlineStr"/>
@@ -12661,7 +12661,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
@@ -12694,7 +12694,7 @@
         <v>15855.07587276997</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
@@ -12727,7 +12727,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I374" t="inlineStr"/>
       <c r="J374" t="inlineStr"/>
@@ -12760,7 +12760,7 @@
         <v>14941.07587276997</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I375" t="inlineStr"/>
       <c r="J375" t="inlineStr"/>
@@ -12793,7 +12793,7 @@
         <v>9676.424172769974</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I376" t="inlineStr"/>
       <c r="J376" t="inlineStr"/>
@@ -12826,7 +12826,7 @@
         <v>11659.81257276997</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I377" t="inlineStr"/>
       <c r="J377" t="inlineStr"/>
@@ -21373,7 +21373,7 @@
         <v>-86807.22108925002</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -21406,7 +21406,7 @@
         <v>-86809.22108925002</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -21439,7 +21439,7 @@
         <v>-86043.22278925001</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -21472,7 +21472,7 @@
         <v>-85031.65318925001</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -21505,7 +21505,7 @@
         <v>-85131.65318925001</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -21538,7 +21538,7 @@
         <v>-85149.65318925001</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -21670,7 +21670,7 @@
         <v>-85200.31972721001</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -23518,7 +23518,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -23551,7 +23551,7 @@
         <v>-141528.3043257</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -23584,7 +23584,7 @@
         <v>-155261.1868257</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -23617,7 +23617,7 @@
         <v>-155676.7054257</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -23650,7 +23650,7 @@
         <v>-155675.7054257</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -23683,7 +23683,7 @@
         <v>-156697.3089257</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -23716,7 +23716,7 @@
         <v>-160243.4466257</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -23749,7 +23749,7 @@
         <v>-157133.2451257</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -23782,7 +23782,7 @@
         <v>-157490.9109257</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -23815,11 +23815,17 @@
         <v>-157677.4109257</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
-      </c>
-      <c r="I710" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I710" t="n">
+        <v>669</v>
+      </c>
       <c r="J710" t="inlineStr"/>
-      <c r="K710" t="inlineStr"/>
+      <c r="K710" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L710" t="n">
         <v>1</v>
       </c>
@@ -23852,7 +23858,11 @@
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
-      <c r="K711" t="inlineStr"/>
+      <c r="K711" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L711" t="n">
         <v>1</v>
       </c>
@@ -23885,7 +23895,11 @@
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
-      <c r="K712" t="inlineStr"/>
+      <c r="K712" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L712" t="n">
         <v>1</v>
       </c>
@@ -23918,7 +23932,11 @@
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
-      <c r="K713" t="inlineStr"/>
+      <c r="K713" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L713" t="n">
         <v>1</v>
       </c>
@@ -23951,7 +23969,11 @@
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
-      <c r="K714" t="inlineStr"/>
+      <c r="K714" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L714" t="n">
         <v>1</v>
       </c>
@@ -23984,7 +24006,11 @@
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
-      <c r="K715" t="inlineStr"/>
+      <c r="K715" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L715" t="n">
         <v>1</v>
       </c>
@@ -24013,11 +24039,15 @@
         <v>-160307.7833257</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
-      <c r="K716" t="inlineStr"/>
+      <c r="K716" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L716" t="n">
         <v>1</v>
       </c>
@@ -24046,11 +24076,15 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
-      <c r="K717" t="inlineStr"/>
+      <c r="K717" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L717" t="n">
         <v>1</v>
       </c>
@@ -24079,11 +24113,17 @@
         <v>-162416.7940257</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
-      </c>
-      <c r="I718" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I718" t="n">
+        <v>664</v>
+      </c>
       <c r="J718" t="inlineStr"/>
-      <c r="K718" t="inlineStr"/>
+      <c r="K718" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L718" t="n">
         <v>1</v>
       </c>
@@ -24116,7 +24156,11 @@
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
-      <c r="K719" t="inlineStr"/>
+      <c r="K719" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L719" t="n">
         <v>1</v>
       </c>
@@ -24145,11 +24189,17 @@
         <v>-162753.7072257</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
-      </c>
-      <c r="I720" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I720" t="n">
+        <v>664</v>
+      </c>
       <c r="J720" t="inlineStr"/>
-      <c r="K720" t="inlineStr"/>
+      <c r="K720" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L720" t="n">
         <v>1</v>
       </c>
@@ -24178,11 +24228,17 @@
         <v>-164714.1277257</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
-      </c>
-      <c r="I721" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I721" t="n">
+        <v>657</v>
+      </c>
       <c r="J721" t="inlineStr"/>
-      <c r="K721" t="inlineStr"/>
+      <c r="K721" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L721" t="n">
         <v>1</v>
       </c>
@@ -24211,11 +24267,17 @@
         <v>-164000.6070257</v>
       </c>
       <c r="H722" t="n">
-        <v>0</v>
-      </c>
-      <c r="I722" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I722" t="n">
+        <v>654</v>
+      </c>
       <c r="J722" t="inlineStr"/>
-      <c r="K722" t="inlineStr"/>
+      <c r="K722" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L722" t="n">
         <v>1</v>
       </c>
@@ -24244,11 +24306,17 @@
         <v>-164000.6070257</v>
       </c>
       <c r="H723" t="n">
-        <v>0</v>
-      </c>
-      <c r="I723" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I723" t="n">
+        <v>662</v>
+      </c>
       <c r="J723" t="inlineStr"/>
-      <c r="K723" t="inlineStr"/>
+      <c r="K723" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L723" t="n">
         <v>1</v>
       </c>
@@ -24277,11 +24345,17 @@
         <v>-163375.8719257</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
-      </c>
-      <c r="I724" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I724" t="n">
+        <v>662</v>
+      </c>
       <c r="J724" t="inlineStr"/>
-      <c r="K724" t="inlineStr"/>
+      <c r="K724" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L724" t="n">
         <v>1</v>
       </c>
@@ -24310,11 +24384,17 @@
         <v>-164583.9761257001</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
-      </c>
-      <c r="I725" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I725" t="n">
+        <v>666</v>
+      </c>
       <c r="J725" t="inlineStr"/>
-      <c r="K725" t="inlineStr"/>
+      <c r="K725" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L725" t="n">
         <v>1</v>
       </c>
@@ -24343,11 +24423,17 @@
         <v>-164583.9761257001</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
-      </c>
-      <c r="I726" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I726" t="n">
+        <v>661</v>
+      </c>
       <c r="J726" t="inlineStr"/>
-      <c r="K726" t="inlineStr"/>
+      <c r="K726" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L726" t="n">
         <v>1</v>
       </c>
@@ -24376,11 +24462,17 @@
         <v>-165509.5426257</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
-      </c>
-      <c r="I727" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I727" t="n">
+        <v>661</v>
+      </c>
       <c r="J727" t="inlineStr"/>
-      <c r="K727" t="inlineStr"/>
+      <c r="K727" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L727" t="n">
         <v>1</v>
       </c>
@@ -24409,11 +24501,17 @@
         <v>-168239.5215257</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
-      </c>
-      <c r="I728" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I728" t="n">
+        <v>659</v>
+      </c>
       <c r="J728" t="inlineStr"/>
-      <c r="K728" t="inlineStr"/>
+      <c r="K728" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L728" t="n">
         <v>1</v>
       </c>
@@ -24442,11 +24540,17 @@
         <v>-165293.9384257</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
-      </c>
-      <c r="I729" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I729" t="n">
+        <v>658</v>
+      </c>
       <c r="J729" t="inlineStr"/>
-      <c r="K729" t="inlineStr"/>
+      <c r="K729" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L729" t="n">
         <v>1</v>
       </c>
@@ -24480,10 +24584,12 @@
       <c r="I730" t="n">
         <v>665</v>
       </c>
-      <c r="J730" t="n">
-        <v>665</v>
-      </c>
-      <c r="K730" t="inlineStr"/>
+      <c r="J730" t="inlineStr"/>
+      <c r="K730" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L730" t="n">
         <v>1</v>
       </c>
@@ -24512,15 +24618,15 @@
         <v>-165513.6886257</v>
       </c>
       <c r="H731" t="n">
-        <v>0</v>
-      </c>
-      <c r="I731" t="inlineStr"/>
-      <c r="J731" t="n">
-        <v>665</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I731" t="n">
+        <v>663</v>
+      </c>
+      <c r="J731" t="inlineStr"/>
       <c r="K731" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L731" t="n">
@@ -24551,15 +24657,15 @@
         <v>-165189.0087257001</v>
       </c>
       <c r="H732" t="n">
-        <v>0</v>
-      </c>
-      <c r="I732" t="inlineStr"/>
-      <c r="J732" t="n">
-        <v>665</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I732" t="n">
+        <v>657</v>
+      </c>
+      <c r="J732" t="inlineStr"/>
       <c r="K732" t="inlineStr">
         <is>
-          <t>매수 대기</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L732" t="n">
@@ -24590,11 +24696,17 @@
         <v>-164537.9875257001</v>
       </c>
       <c r="H733" t="n">
-        <v>0</v>
-      </c>
-      <c r="I733" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I733" t="n">
+        <v>658</v>
+      </c>
       <c r="J733" t="inlineStr"/>
-      <c r="K733" t="inlineStr"/>
+      <c r="K733" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L733" t="n">
         <v>1</v>
       </c>
@@ -24631,7 +24743,7 @@
       <c r="J734" t="inlineStr"/>
       <c r="K734" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L734" t="n">
@@ -25013,9 +25125,11 @@
         <v>-143708.4353257001</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
-      </c>
-      <c r="I744" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I744" t="n">
+        <v>669</v>
+      </c>
       <c r="J744" t="inlineStr"/>
       <c r="K744" t="inlineStr">
         <is>
@@ -25050,9 +25164,11 @@
         <v>-150379.3198257001</v>
       </c>
       <c r="H745" t="n">
-        <v>0</v>
-      </c>
-      <c r="I745" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I745" t="n">
+        <v>670</v>
+      </c>
       <c r="J745" t="inlineStr"/>
       <c r="K745" t="inlineStr">
         <is>
@@ -25087,9 +25203,11 @@
         <v>-148683.5619257001</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
-      </c>
-      <c r="I746" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I746" t="n">
+        <v>660</v>
+      </c>
       <c r="J746" t="inlineStr"/>
       <c r="K746" t="inlineStr">
         <is>
@@ -25124,9 +25242,11 @@
         <v>-147531.7386257001</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
-      </c>
-      <c r="I747" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I747" t="n">
+        <v>662</v>
+      </c>
       <c r="J747" t="inlineStr"/>
       <c r="K747" t="inlineStr">
         <is>
@@ -25161,9 +25281,11 @@
         <v>-150081.4585257001</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
-      </c>
-      <c r="I748" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I748" t="n">
+        <v>664</v>
+      </c>
       <c r="J748" t="inlineStr"/>
       <c r="K748" t="inlineStr">
         <is>
@@ -25198,9 +25320,11 @@
         <v>-149482.4586257001</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
-      </c>
-      <c r="I749" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I749" t="n">
+        <v>663</v>
+      </c>
       <c r="J749" t="inlineStr"/>
       <c r="K749" t="inlineStr">
         <is>
@@ -25235,9 +25359,11 @@
         <v>-148716.8086257001</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
-      </c>
-      <c r="I750" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I750" t="n">
+        <v>664</v>
+      </c>
       <c r="J750" t="inlineStr"/>
       <c r="K750" t="inlineStr">
         <is>
@@ -25272,9 +25398,11 @@
         <v>-146141.4439257001</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
-      </c>
-      <c r="I751" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I751" t="n">
+        <v>666</v>
+      </c>
       <c r="J751" t="inlineStr"/>
       <c r="K751" t="inlineStr">
         <is>
@@ -25309,9 +25437,11 @@
         <v>-143169.6350257001</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
-      </c>
-      <c r="I752" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I752" t="n">
+        <v>674</v>
+      </c>
       <c r="J752" t="inlineStr"/>
       <c r="K752" t="inlineStr">
         <is>
@@ -25420,16 +25550,18 @@
         <v>-137941.0706257001</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
       <c r="K755" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L755" t="inlineStr"/>
+      <c r="L755" t="n">
+        <v>1</v>
+      </c>
       <c r="M755" t="inlineStr"/>
     </row>
     <row r="756">
@@ -25455,11 +25587,15 @@
         <v>-137931.0706257001</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
-      <c r="K756" t="inlineStr"/>
+      <c r="K756" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L756" t="n">
         <v>1</v>
       </c>
@@ -25488,11 +25624,15 @@
         <v>-138591.7475257001</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
-      <c r="K757" t="inlineStr"/>
+      <c r="K757" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L757" t="n">
         <v>1</v>
       </c>
@@ -25521,11 +25661,17 @@
         <v>-138246.7475257001</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
-      </c>
-      <c r="I758" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I758" t="n">
+        <v>678</v>
+      </c>
       <c r="J758" t="inlineStr"/>
-      <c r="K758" t="inlineStr"/>
+      <c r="K758" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L758" t="n">
         <v>1</v>
       </c>
@@ -25554,11 +25700,15 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
-      <c r="K759" t="inlineStr"/>
+      <c r="K759" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L759" t="n">
         <v>1</v>
       </c>
@@ -25587,11 +25737,17 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H760" t="n">
-        <v>0</v>
-      </c>
-      <c r="I760" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I760" t="n">
+        <v>680</v>
+      </c>
       <c r="J760" t="inlineStr"/>
-      <c r="K760" t="inlineStr"/>
+      <c r="K760" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L760" t="n">
         <v>1</v>
       </c>
@@ -25620,11 +25776,17 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H761" t="n">
-        <v>0</v>
-      </c>
-      <c r="I761" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I761" t="n">
+        <v>680</v>
+      </c>
       <c r="J761" t="inlineStr"/>
-      <c r="K761" t="inlineStr"/>
+      <c r="K761" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L761" t="n">
         <v>1</v>
       </c>
@@ -25653,11 +25815,17 @@
         <v>-137984.7475257001</v>
       </c>
       <c r="H762" t="n">
-        <v>0</v>
-      </c>
-      <c r="I762" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I762" t="n">
+        <v>680</v>
+      </c>
       <c r="J762" t="inlineStr"/>
-      <c r="K762" t="inlineStr"/>
+      <c r="K762" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L762" t="n">
         <v>1</v>
       </c>
@@ -25686,11 +25854,17 @@
         <v>-131196.6553575601</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
-      </c>
-      <c r="I763" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I763" t="n">
+        <v>680</v>
+      </c>
       <c r="J763" t="inlineStr"/>
-      <c r="K763" t="inlineStr"/>
+      <c r="K763" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L763" t="n">
         <v>1</v>
       </c>
@@ -25719,11 +25893,15 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
-      <c r="K764" t="inlineStr"/>
+      <c r="K764" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L764" t="n">
         <v>1</v>
       </c>
@@ -25752,11 +25930,15 @@
         <v>-134447.9539575601</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
-      <c r="K765" t="inlineStr"/>
+      <c r="K765" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L765" t="n">
         <v>1</v>
       </c>
@@ -25785,11 +25967,17 @@
         <v>-134146.1913575601</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
-      </c>
-      <c r="I766" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I766" t="n">
+        <v>683</v>
+      </c>
       <c r="J766" t="inlineStr"/>
-      <c r="K766" t="inlineStr"/>
+      <c r="K766" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L766" t="n">
         <v>1</v>
       </c>
@@ -25818,11 +26006,15 @@
         <v>-135598.7024575601</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
-      <c r="K767" t="inlineStr"/>
+      <c r="K767" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L767" t="n">
         <v>1</v>
       </c>
@@ -25851,11 +26043,15 @@
         <v>-130879.0267575601</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
-      <c r="K768" t="inlineStr"/>
+      <c r="K768" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L768" t="n">
         <v>1</v>
       </c>
@@ -25884,11 +26080,15 @@
         <v>-124638.2638575601</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
-      <c r="K769" t="inlineStr"/>
+      <c r="K769" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L769" t="n">
         <v>1</v>
       </c>
@@ -25921,7 +26121,11 @@
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
-      <c r="K770" t="inlineStr"/>
+      <c r="K770" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L770" t="n">
         <v>1</v>
       </c>
@@ -25954,7 +26158,11 @@
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
-      <c r="K771" t="inlineStr"/>
+      <c r="K771" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L771" t="n">
         <v>1</v>
       </c>
@@ -25987,7 +26195,11 @@
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
-      <c r="K772" t="inlineStr"/>
+      <c r="K772" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L772" t="n">
         <v>1</v>
       </c>
@@ -26020,7 +26232,11 @@
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
-      <c r="K773" t="inlineStr"/>
+      <c r="K773" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L773" t="n">
         <v>1</v>
       </c>
@@ -26053,7 +26269,11 @@
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
-      <c r="K774" t="inlineStr"/>
+      <c r="K774" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L774" t="n">
         <v>1</v>
       </c>
@@ -26086,7 +26306,11 @@
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
-      <c r="K775" t="inlineStr"/>
+      <c r="K775" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L775" t="n">
         <v>1</v>
       </c>
@@ -26119,7 +26343,11 @@
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
-      <c r="K776" t="inlineStr"/>
+      <c r="K776" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L776" t="n">
         <v>1</v>
       </c>
@@ -26152,7 +26380,11 @@
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
-      <c r="K777" t="inlineStr"/>
+      <c r="K777" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L777" t="n">
         <v>1</v>
       </c>
@@ -26181,11 +26413,15 @@
         <v>-111438.2641439301</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
-      <c r="K778" t="inlineStr"/>
+      <c r="K778" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L778" t="n">
         <v>1</v>
       </c>
@@ -26214,11 +26450,15 @@
         <v>-113090.2020439301</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
-      <c r="K779" t="inlineStr"/>
+      <c r="K779" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L779" t="n">
         <v>1</v>
       </c>
@@ -26251,7 +26491,11 @@
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
-      <c r="K780" t="inlineStr"/>
+      <c r="K780" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L780" t="n">
         <v>1</v>
       </c>
@@ -26284,7 +26528,11 @@
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
-      <c r="K781" t="inlineStr"/>
+      <c r="K781" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L781" t="n">
         <v>1</v>
       </c>
@@ -26317,7 +26565,11 @@
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
-      <c r="K782" t="inlineStr"/>
+      <c r="K782" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L782" t="n">
         <v>1</v>
       </c>
@@ -26350,7 +26602,11 @@
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
-      <c r="K783" t="inlineStr"/>
+      <c r="K783" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L783" t="n">
         <v>1</v>
       </c>
@@ -26383,7 +26639,11 @@
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
-      <c r="K784" t="inlineStr"/>
+      <c r="K784" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L784" t="n">
         <v>1</v>
       </c>
@@ -26412,11 +26672,15 @@
         <v>-113748.9102439301</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
-      <c r="K785" t="inlineStr"/>
+      <c r="K785" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L785" t="n">
         <v>1</v>
       </c>
@@ -26445,11 +26709,15 @@
         <v>-113258.1028439301</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
-      <c r="K786" t="inlineStr"/>
+      <c r="K786" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L786" t="n">
         <v>1</v>
       </c>
@@ -26478,11 +26746,15 @@
         <v>-114515.2670439301</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
-      <c r="K787" t="inlineStr"/>
+      <c r="K787" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L787" t="n">
         <v>1</v>
       </c>
@@ -26511,11 +26783,15 @@
         <v>-120955.9094439301</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
-      <c r="K788" t="inlineStr"/>
+      <c r="K788" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L788" t="n">
         <v>1</v>
       </c>
@@ -26544,11 +26820,15 @@
         <v>-122911.4612439301</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
-      <c r="K789" t="inlineStr"/>
+      <c r="K789" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L789" t="n">
         <v>1</v>
       </c>
@@ -26577,11 +26857,15 @@
         <v>-122821.3817439301</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
-      <c r="K790" t="inlineStr"/>
+      <c r="K790" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L790" t="n">
         <v>1</v>
       </c>
@@ -26610,11 +26894,15 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
-      <c r="K791" t="inlineStr"/>
+      <c r="K791" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L791" t="n">
         <v>1</v>
       </c>
@@ -26643,11 +26931,15 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
-      <c r="K792" t="inlineStr"/>
+      <c r="K792" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L792" t="n">
         <v>1</v>
       </c>
@@ -26676,11 +26968,15 @@
         <v>-122721.3817439301</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
-      <c r="K793" t="inlineStr"/>
+      <c r="K793" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L793" t="n">
         <v>1</v>
       </c>
@@ -26709,11 +27005,15 @@
         <v>-88224.28624393008</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
-      <c r="K794" t="inlineStr"/>
+      <c r="K794" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L794" t="n">
         <v>1</v>
       </c>
@@ -26742,11 +27042,15 @@
         <v>-89239.14944393009</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
-      <c r="K795" t="inlineStr"/>
+      <c r="K795" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L795" t="n">
         <v>1</v>
       </c>
